--- a/논문/새 Microsoft Excel 워크시트2.xlsx
+++ b/논문/새 Microsoft Excel 워크시트2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\논문\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9236CC-69AD-4068-8567-351753FEDE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA0248-F969-4276-A97F-451F70BE94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1410" yWindow="360" windowWidth="21825" windowHeight="9307" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="0" windowWidth="16200" windowHeight="12863" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,6 +1129,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1560,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1682,30 +1689,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1732,7 +1715,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2020,9 +2030,9 @@
       <selection activeCell="G3" sqref="G3:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2135,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" ht="25.5">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2174,7 +2184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +2237,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2308,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2376,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2400,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2408,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2463,14 +2473,14 @@
       <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2505,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2551,7 +2561,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:19" ht="25.5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2711,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2765,642 +2775,642 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:1" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:1" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" s="2" customFormat="1">
       <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" s="17" customFormat="1">
       <c r="A66" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" s="17" customFormat="1">
       <c r="A67" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" s="17" customFormat="1">
       <c r="A68" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" s="18" customFormat="1">
       <c r="A69" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" s="18" customFormat="1">
       <c r="A70" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" s="2" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" s="2" customFormat="1">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" s="18" customFormat="1">
       <c r="A74" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" s="18" customFormat="1">
       <c r="A75" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" s="1" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" s="5" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" s="5" customFormat="1">
       <c r="A81" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" s="19" customFormat="1">
       <c r="A84" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" s="19" customFormat="1">
       <c r="A85" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" s="2" customFormat="1">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" s="1" customFormat="1">
       <c r="A89" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" s="18" customFormat="1">
       <c r="A91" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" s="18" customFormat="1">
       <c r="A92" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" s="18" customFormat="1">
       <c r="A93" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" s="19" customFormat="1">
       <c r="A94" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" s="19" customFormat="1">
       <c r="A95" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" s="19" customFormat="1">
       <c r="A96" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" s="3" customFormat="1">
       <c r="A97" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" s="3" customFormat="1">
       <c r="A98" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" s="3" customFormat="1">
       <c r="A99" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:1" s="4" customFormat="1">
       <c r="A104" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1" s="4" customFormat="1">
       <c r="A105" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:1" s="2" customFormat="1">
       <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1" s="2" customFormat="1">
       <c r="A107" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1" s="6" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1" s="6" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1" s="1" customFormat="1">
       <c r="A111" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1" s="5" customFormat="1">
       <c r="A114" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1" s="5" customFormat="1">
       <c r="A115" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1" s="5" customFormat="1">
       <c r="A116" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1" s="2" customFormat="1">
       <c r="A117" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1" s="2" customFormat="1">
       <c r="A118" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1" s="2" customFormat="1">
       <c r="A119" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1" s="4" customFormat="1">
       <c r="A121" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1" s="4" customFormat="1">
       <c r="A122" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1" s="2" customFormat="1">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1" s="2" customFormat="1">
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1" s="2" customFormat="1">
       <c r="A125" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1" s="1" customFormat="1">
       <c r="A134" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1" s="1" customFormat="1">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1" s="5" customFormat="1">
       <c r="A136" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:1" s="5" customFormat="1">
       <c r="A137" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1" s="5" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>164</v>
       </c>
@@ -3415,11 +3425,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68973864-0F46-4A02-99C8-DA7932EAF9E2}">
   <dimension ref="A1:AD145"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC63" sqref="AC63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="11" max="19" width="9" style="20"/>
@@ -3428,7 +3438,7 @@
     <col min="30" max="30" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -3441,30 +3451,30 @@
       <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="U1" s="66" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="U1" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-    </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -3477,30 +3487,30 @@
       <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="U2" s="67" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -3561,7 +3571,7 @@
       </c>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -3622,7 +3632,7 @@
       </c>
       <c r="AC4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3768,7 +3778,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:30" s="20" customFormat="1" ht="17.25" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>178</v>
       </c>
@@ -3928,7 +3938,7 @@
       <c r="AC8" s="36"/>
       <c r="AD8" s="47"/>
     </row>
-    <row r="9" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:30" s="20" customFormat="1">
       <c r="A9" s="20" t="s">
         <v>179</v>
       </c>
@@ -3941,28 +3951,28 @@
       <c r="G9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
       <c r="AD9" s="47"/>
     </row>
-    <row r="10" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:30" s="20" customFormat="1">
       <c r="A10" s="20" t="s">
         <v>180</v>
       </c>
@@ -3977,32 +3987,32 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="65" t="s">
+      <c r="U10" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
       <c r="AD10" s="47"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -4065,7 +4075,7 @@
       </c>
       <c r="AC11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -4132,7 +4142,7 @@
       </c>
       <c r="AC12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -4295,7 +4305,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:30" ht="17.25" thickBot="1">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -4470,7 +4480,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:30" ht="17.25" thickBot="1">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -4490,30 +4500,30 @@
         <f>COUNTIF(G:G,5)</f>
         <v>44</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="U17" s="64" t="s">
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="U17" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -4580,7 +4590,7 @@
       </c>
       <c r="AC18" s="31"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -4644,7 +4654,7 @@
       </c>
       <c r="AC19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -4717,7 +4727,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -4787,7 +4797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -4871,7 +4881,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:30" ht="17.25" thickBot="1">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -4945,7 +4955,7 @@
       </c>
       <c r="AC23" s="36"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -4958,17 +4968,17 @@
       <c r="G24" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -4982,7 +4992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>196</v>
       </c>
@@ -4992,64 +5002,64 @@
       <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
       <c r="T26" s="41"/>
-      <c r="U26" s="63" t="s">
+      <c r="U26" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
       <c r="AD26" s="48"/>
     </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="F27" t="s">
         <v>165</v>
       </c>
       <c r="G27" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
       <c r="T27" s="41"/>
-      <c r="U27" s="64" t="s">
+      <c r="U27" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
       <c r="AD27" s="48"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -5110,7 +5120,7 @@
       <c r="AC28" s="31"/>
       <c r="AD28" s="43"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -5170,7 +5180,7 @@
       </c>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -5246,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -5316,7 +5326,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -5400,7 +5410,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:30" ht="17.25" thickBot="1">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -5474,7 +5484,7 @@
       </c>
       <c r="AC33" s="36"/>
     </row>
-    <row r="34" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:30" ht="17.25" thickBot="1">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -5487,26 +5497,26 @@
       <c r="G34" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-    </row>
-    <row r="35" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+    </row>
+    <row r="35" spans="1:30" ht="17.25" thickBot="1">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -5519,30 +5529,30 @@
       <c r="G35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="64" t="s">
+      <c r="K35" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="U35" s="64" t="s">
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="U35" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="64"/>
-    </row>
-    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="88"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="88"/>
+    </row>
+    <row r="36" spans="1:30" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>205</v>
       </c>
@@ -5604,7 +5614,7 @@
       <c r="AC36" s="31"/>
       <c r="AD36" s="48"/>
     </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:30" s="1" customFormat="1">
       <c r="F37" t="s">
         <v>167</v>
       </c>
@@ -5660,7 +5670,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="48"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>207</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -5890,7 +5900,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:30" ht="17.25" thickBot="1">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -5964,7 +5974,7 @@
       </c>
       <c r="AC41" s="36"/>
     </row>
-    <row r="42" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:30" ht="17.25" thickBot="1">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -5977,30 +5987,30 @@
       <c r="G42" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="64" t="s">
+      <c r="K42" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="U42" s="64" t="s">
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="U42" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
+      <c r="AA42" s="88"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="88"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>211</v>
       </c>
@@ -6060,7 +6070,7 @@
       </c>
       <c r="AC43" s="31"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -6120,7 +6130,7 @@
       </c>
       <c r="AC44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -6196,7 +6206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -6350,7 +6360,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:30" ht="17.25" thickBot="1">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -6424,7 +6434,7 @@
       </c>
       <c r="AC48" s="36"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
         <v>217</v>
       </c>
@@ -6438,7 +6448,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
         <v>218</v>
       </c>
@@ -6452,7 +6462,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:30" ht="17.25" thickBot="1">
       <c r="A51" t="s">
         <v>219</v>
       </c>
@@ -6465,30 +6475,30 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="63" t="s">
+      <c r="K51" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="63"/>
-      <c r="U51" s="63" t="s">
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="87"/>
+      <c r="U51" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="V51" s="63"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="63"/>
-      <c r="Y51" s="63"/>
-      <c r="Z51" s="63"/>
-      <c r="AA51" s="63"/>
-      <c r="AB51" s="63"/>
-      <c r="AC51" s="63"/>
-    </row>
-    <row r="52" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="V51" s="87"/>
+      <c r="W51" s="87"/>
+      <c r="X51" s="87"/>
+      <c r="Y51" s="87"/>
+      <c r="Z51" s="87"/>
+      <c r="AA51" s="87"/>
+      <c r="AB51" s="87"/>
+      <c r="AC51" s="87"/>
+    </row>
+    <row r="52" spans="1:30" ht="17.25" thickBot="1">
       <c r="A52" t="s">
         <v>220</v>
       </c>
@@ -6501,30 +6511,30 @@
       <c r="G52" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="64" t="s">
+      <c r="K52" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="64"/>
-      <c r="U52" s="64" t="s">
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="U52" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="64"/>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="64"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
         <v>221</v>
       </c>
@@ -6584,7 +6594,7 @@
       </c>
       <c r="AC53" s="31"/>
     </row>
-    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:30" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>222</v>
       </c>
@@ -6646,7 +6656,7 @@
       <c r="AC54" s="28"/>
       <c r="AD54" s="48"/>
     </row>
-    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:30" s="1" customFormat="1">
       <c r="F55" t="s">
         <v>169</v>
       </c>
@@ -6716,7 +6726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:30" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>223</v>
       </c>
@@ -6788,7 +6798,7 @@
       </c>
       <c r="AD56" s="49"/>
     </row>
-    <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:30" s="2" customFormat="1">
       <c r="F57" t="s">
         <v>169</v>
       </c>
@@ -6868,7 +6878,7 @@
       </c>
       <c r="AD57" s="49"/>
     </row>
-    <row r="58" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="F58" t="s">
         <v>165</v>
       </c>
@@ -6938,35 +6948,35 @@
       <c r="AC58" s="36"/>
       <c r="AD58" s="49"/>
     </row>
-    <row r="59" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="F59" t="s">
         <v>165</v>
       </c>
       <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
       <c r="T59" s="41"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-      <c r="AA59" s="64"/>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="64"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
       <c r="AD59" s="49"/>
     </row>
-    <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>224</v>
       </c>
@@ -6979,32 +6989,32 @@
       <c r="G60" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="64" t="s">
+      <c r="K60" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
       <c r="T60" s="41"/>
-      <c r="U60" s="64" t="s">
+      <c r="U60" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="V60" s="64"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="64"/>
-      <c r="Z60" s="64"/>
-      <c r="AA60" s="64"/>
-      <c r="AB60" s="64"/>
-      <c r="AC60" s="64"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
       <c r="AD60" s="48"/>
     </row>
-    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:30" s="1" customFormat="1">
       <c r="F61" t="s">
         <v>169</v>
       </c>
@@ -7060,7 +7070,7 @@
       <c r="AC61" s="31"/>
       <c r="AD61" s="48"/>
     </row>
-    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:30" s="1" customFormat="1">
       <c r="F62" t="s">
         <v>169</v>
       </c>
@@ -7116,7 +7126,7 @@
       <c r="AC62" s="28"/>
       <c r="AD62" s="48"/>
     </row>
-    <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:30" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>225</v>
       </c>
@@ -7192,7 +7202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:30" s="2" customFormat="1">
       <c r="F64" t="s">
         <v>165</v>
       </c>
@@ -7258,7 +7268,7 @@
       </c>
       <c r="AD64" s="49"/>
     </row>
-    <row r="65" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:30" s="2" customFormat="1">
       <c r="F65" t="s">
         <v>169</v>
       </c>
@@ -7338,7 +7348,7 @@
       </c>
       <c r="AD65" s="49"/>
     </row>
-    <row r="66" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1">
       <c r="A66" s="17" t="s">
         <v>226</v>
       </c>
@@ -7414,39 +7424,39 @@
       <c r="AC66" s="36"/>
       <c r="AD66" s="50"/>
     </row>
-    <row r="67" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1">
       <c r="F67" t="s">
         <v>170</v>
       </c>
       <c r="G67" t="s">
         <v>170</v>
       </c>
-      <c r="K67" s="64" t="s">
+      <c r="K67" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
       <c r="T67" s="41"/>
-      <c r="U67" s="64" t="s">
+      <c r="U67" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="64"/>
-      <c r="Z67" s="64"/>
-      <c r="AA67" s="64"/>
-      <c r="AB67" s="64"/>
-      <c r="AC67" s="64"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
+      <c r="AC67" s="88"/>
       <c r="AD67" s="50"/>
     </row>
-    <row r="68" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:30" s="17" customFormat="1">
       <c r="F68" t="s">
         <v>167</v>
       </c>
@@ -7502,7 +7512,7 @@
       <c r="AC68" s="31"/>
       <c r="AD68" s="50"/>
     </row>
-    <row r="69" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:30" s="18" customFormat="1">
       <c r="A69" s="18" t="s">
         <v>227</v>
       </c>
@@ -7564,7 +7574,7 @@
       <c r="AC69" s="28"/>
       <c r="AD69" s="51"/>
     </row>
-    <row r="70" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:30" s="18" customFormat="1">
       <c r="F70" t="s">
         <v>167</v>
       </c>
@@ -7634,7 +7644,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:30" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>228</v>
       </c>
@@ -7706,7 +7716,7 @@
       </c>
       <c r="AD71" s="49"/>
     </row>
-    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:30" s="2" customFormat="1">
       <c r="F72" t="s">
         <v>166</v>
       </c>
@@ -7786,7 +7796,7 @@
       </c>
       <c r="AD72" s="49"/>
     </row>
-    <row r="73" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="F73" t="s">
         <v>170</v>
       </c>
@@ -7856,7 +7866,7 @@
       <c r="AC73" s="36"/>
       <c r="AD73" s="49"/>
     </row>
-    <row r="74" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:30" s="18" customFormat="1">
       <c r="A74" s="18" t="s">
         <v>229</v>
       </c>
@@ -7890,7 +7900,7 @@
       <c r="AC74" s="20"/>
       <c r="AD74" s="51"/>
     </row>
-    <row r="75" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:30" s="18" customFormat="1">
       <c r="F75" t="s">
         <v>169</v>
       </c>
@@ -7918,7 +7928,7 @@
       <c r="AC75" s="20"/>
       <c r="AD75" s="51"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -7932,7 +7942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -7946,7 +7956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:30" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>232</v>
       </c>
@@ -7980,7 +7990,7 @@
       <c r="AC78" s="20"/>
       <c r="AD78" s="48"/>
     </row>
-    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:30" s="1" customFormat="1">
       <c r="F79" t="s">
         <v>165</v>
       </c>
@@ -8008,7 +8018,7 @@
       <c r="AC79" s="20"/>
       <c r="AD79" s="48"/>
     </row>
-    <row r="80" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:30" s="5" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>252</v>
       </c>
@@ -8042,7 +8052,7 @@
       <c r="AC80" s="20"/>
       <c r="AD80" s="52"/>
     </row>
-    <row r="81" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:30" s="5" customFormat="1">
       <c r="F81" t="s">
         <v>166</v>
       </c>
@@ -8070,7 +8080,7 @@
       <c r="AC81" s="20"/>
       <c r="AD81" s="52"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -8084,7 +8094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
         <v>253</v>
       </c>
@@ -8098,7 +8108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:30" s="19" customFormat="1">
       <c r="A84" s="19" t="s">
         <v>239</v>
       </c>
@@ -8132,7 +8142,7 @@
       <c r="AC84" s="20"/>
       <c r="AD84" s="53"/>
     </row>
-    <row r="85" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:30" s="19" customFormat="1">
       <c r="F85" t="s">
         <v>169</v>
       </c>
@@ -8160,7 +8170,7 @@
       <c r="AC85" s="20"/>
       <c r="AD85" s="53"/>
     </row>
-    <row r="86" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:30" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>240</v>
       </c>
@@ -8197,7 +8207,7 @@
       <c r="AC86" s="20"/>
       <c r="AD86" s="49"/>
     </row>
-    <row r="87" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:30" s="2" customFormat="1">
       <c r="B87" s="2">
         <v>2</v>
       </c>
@@ -8228,7 +8238,7 @@
       <c r="AC87" s="20"/>
       <c r="AD87" s="49"/>
     </row>
-    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:30" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
@@ -8265,7 +8275,7 @@
       <c r="AC88" s="20"/>
       <c r="AD88" s="48"/>
     </row>
-    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:30" s="1" customFormat="1">
       <c r="B89" s="1">
         <v>2</v>
       </c>
@@ -8296,7 +8306,7 @@
       <c r="AC89" s="20"/>
       <c r="AD89" s="48"/>
     </row>
-    <row r="90" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:30" s="20" customFormat="1">
       <c r="A90" s="20" t="s">
         <v>241</v>
       </c>
@@ -8312,7 +8322,7 @@
       <c r="T90" s="41"/>
       <c r="AD90" s="47"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:30">
       <c r="A91" s="2" t="s">
         <v>242</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:30">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8340,7 +8350,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:30">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8353,7 +8363,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:30" s="18" customFormat="1">
       <c r="A94" s="18" t="s">
         <v>243</v>
       </c>
@@ -8387,7 +8397,7 @@
       <c r="AC94" s="20"/>
       <c r="AD94" s="51"/>
     </row>
-    <row r="95" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:30" s="18" customFormat="1">
       <c r="F95" t="s">
         <v>166</v>
       </c>
@@ -8415,7 +8425,7 @@
       <c r="AC95" s="20"/>
       <c r="AD95" s="51"/>
     </row>
-    <row r="96" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:30" s="18" customFormat="1">
       <c r="F96" t="s">
         <v>166</v>
       </c>
@@ -8443,7 +8453,7 @@
       <c r="AC96" s="20"/>
       <c r="AD96" s="51"/>
     </row>
-    <row r="97" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:30" s="19" customFormat="1">
       <c r="A97" s="19" t="s">
         <v>244</v>
       </c>
@@ -8477,7 +8487,7 @@
       <c r="AC97" s="20"/>
       <c r="AD97" s="53"/>
     </row>
-    <row r="98" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:30" s="19" customFormat="1">
       <c r="F98" t="s">
         <v>166</v>
       </c>
@@ -8505,7 +8515,7 @@
       <c r="AC98" s="20"/>
       <c r="AD98" s="53"/>
     </row>
-    <row r="99" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:30" s="19" customFormat="1">
       <c r="F99" t="s">
         <v>166</v>
       </c>
@@ -8533,7 +8543,7 @@
       <c r="AC99" s="20"/>
       <c r="AD99" s="53"/>
     </row>
-    <row r="100" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:30" s="20" customFormat="1">
       <c r="A100" s="20" t="s">
         <v>245</v>
       </c>
@@ -8549,7 +8559,7 @@
       <c r="T100" s="41"/>
       <c r="AD100" s="47"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -8563,7 +8573,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:30" s="20" customFormat="1">
       <c r="A102" s="20" t="s">
         <v>247</v>
       </c>
@@ -8579,7 +8589,7 @@
       <c r="T102" s="41"/>
       <c r="AD102" s="47"/>
     </row>
-    <row r="103" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:30" s="20" customFormat="1">
       <c r="A103" s="20" t="s">
         <v>249</v>
       </c>
@@ -8595,7 +8605,7 @@
       <c r="T103" s="41"/>
       <c r="AD103" s="47"/>
     </row>
-    <row r="104" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:30" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>259</v>
       </c>
@@ -8629,7 +8639,7 @@
       <c r="AC104" s="20"/>
       <c r="AD104" s="54"/>
     </row>
-    <row r="105" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:30" s="6" customFormat="1">
       <c r="B105" s="6" t="s">
         <v>136</v>
       </c>
@@ -8660,7 +8670,7 @@
       <c r="AC105" s="20"/>
       <c r="AD105" s="54"/>
     </row>
-    <row r="106" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:30" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
         <v>258</v>
       </c>
@@ -8694,7 +8704,7 @@
       <c r="AC106" s="20"/>
       <c r="AD106" s="48"/>
     </row>
-    <row r="107" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:30" s="1" customFormat="1">
       <c r="B107" s="1" t="s">
         <v>138</v>
       </c>
@@ -8725,7 +8735,7 @@
       <c r="AC107" s="20"/>
       <c r="AD107" s="48"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:30">
       <c r="A108" s="20" t="s">
         <v>257</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:30" s="5" customFormat="1">
       <c r="A109" s="5" t="s">
         <v>256</v>
       </c>
@@ -8773,7 +8783,7 @@
       <c r="AC109" s="20"/>
       <c r="AD109" s="52"/>
     </row>
-    <row r="110" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:30" s="5" customFormat="1">
       <c r="B110" s="5" t="s">
         <v>136</v>
       </c>
@@ -8804,7 +8814,7 @@
       <c r="AC110" s="20"/>
       <c r="AD110" s="52"/>
     </row>
-    <row r="111" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:30" s="2" customFormat="1">
       <c r="A111" s="2" t="s">
         <v>234</v>
       </c>
@@ -8838,7 +8848,7 @@
       <c r="AC111" s="20"/>
       <c r="AD111" s="49"/>
     </row>
-    <row r="112" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:30" s="2" customFormat="1">
       <c r="B112" s="2" t="s">
         <v>138</v>
       </c>
@@ -8869,7 +8879,7 @@
       <c r="AC112" s="20"/>
       <c r="AD112" s="49"/>
     </row>
-    <row r="113" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:30" s="20" customFormat="1">
       <c r="A113" s="20" t="s">
         <v>255</v>
       </c>
@@ -8885,7 +8895,7 @@
       <c r="T113" s="41"/>
       <c r="AD113" s="47"/>
     </row>
-    <row r="114" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:30" s="2" customFormat="1">
       <c r="A114" s="2" t="s">
         <v>261</v>
       </c>
@@ -8916,7 +8926,7 @@
       <c r="AC114" s="20"/>
       <c r="AD114" s="49"/>
     </row>
-    <row r="115" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:30" s="2" customFormat="1">
       <c r="F115" t="s">
         <v>169</v>
       </c>
@@ -8944,7 +8954,7 @@
       <c r="AC115" s="20"/>
       <c r="AD115" s="49"/>
     </row>
-    <row r="116" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:30" s="2" customFormat="1">
       <c r="F116" t="s">
         <v>165</v>
       </c>
@@ -8972,7 +8982,7 @@
       <c r="AC116" s="20"/>
       <c r="AD116" s="49"/>
     </row>
-    <row r="117" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:30" s="1" customFormat="1">
       <c r="A117" s="1" t="s">
         <v>262</v>
       </c>
@@ -9003,7 +9013,7 @@
       <c r="AC117" s="20"/>
       <c r="AD117" s="48"/>
     </row>
-    <row r="118" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:30" s="1" customFormat="1">
       <c r="F118" s="1" t="s">
         <v>169</v>
       </c>
@@ -9031,7 +9041,7 @@
       <c r="AC118" s="20"/>
       <c r="AD118" s="48"/>
     </row>
-    <row r="119" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:30" s="1" customFormat="1">
       <c r="F119" s="1" t="s">
         <v>170</v>
       </c>
@@ -9059,7 +9069,7 @@
       <c r="AC119" s="20"/>
       <c r="AD119" s="48"/>
     </row>
-    <row r="120" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:30" s="6" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>263</v>
       </c>
@@ -9090,7 +9100,7 @@
       <c r="AC120" s="20"/>
       <c r="AD120" s="54"/>
     </row>
-    <row r="121" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:30" s="6" customFormat="1">
       <c r="F121" s="6" t="s">
         <v>169</v>
       </c>
@@ -9118,7 +9128,7 @@
       <c r="AC121" s="20"/>
       <c r="AD121" s="54"/>
     </row>
-    <row r="122" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:30" s="6" customFormat="1">
       <c r="F122" s="6" t="s">
         <v>170</v>
       </c>
@@ -9146,7 +9156,7 @@
       <c r="AC122" s="20"/>
       <c r="AD122" s="54"/>
     </row>
-    <row r="123" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:30" s="1" customFormat="1">
       <c r="A123" s="1" t="s">
         <v>264</v>
       </c>
@@ -9177,7 +9187,7 @@
       <c r="AC123" s="20"/>
       <c r="AD123" s="48"/>
     </row>
-    <row r="124" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:30" s="1" customFormat="1">
       <c r="F124" s="1" t="s">
         <v>169</v>
       </c>
@@ -9205,7 +9215,7 @@
       <c r="AC124" s="20"/>
       <c r="AD124" s="48"/>
     </row>
-    <row r="125" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:30" s="1" customFormat="1">
       <c r="F125" s="1" t="s">
         <v>169</v>
       </c>
@@ -9233,7 +9243,7 @@
       <c r="AC125" s="20"/>
       <c r="AD125" s="48"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:30">
       <c r="A126" t="s">
         <v>235</v>
       </c>
@@ -9247,7 +9257,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:30">
       <c r="A127" t="s">
         <v>236</v>
       </c>
@@ -9261,7 +9271,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:30">
       <c r="A128" t="s">
         <v>237</v>
       </c>
@@ -9275,7 +9285,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:30">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -9289,7 +9299,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:30">
       <c r="A130" t="s">
         <v>238</v>
       </c>
@@ -9303,7 +9313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:30">
       <c r="A131" t="s">
         <v>266</v>
       </c>
@@ -9317,7 +9327,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:30" s="20" customFormat="1">
       <c r="A132" s="20" t="s">
         <v>267</v>
       </c>
@@ -9333,7 +9343,7 @@
       <c r="T132" s="41"/>
       <c r="AD132" s="47"/>
     </row>
-    <row r="133" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:30" s="20" customFormat="1">
       <c r="A133" s="20" t="s">
         <v>268</v>
       </c>
@@ -9349,7 +9359,7 @@
       <c r="T133" s="41"/>
       <c r="AD133" s="47"/>
     </row>
-    <row r="134" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:30" s="5" customFormat="1">
       <c r="A134" s="5" t="s">
         <v>269</v>
       </c>
@@ -9383,7 +9393,7 @@
       <c r="AC134" s="20"/>
       <c r="AD134" s="52"/>
     </row>
-    <row r="135" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:30" s="5" customFormat="1">
       <c r="B135" s="5" t="s">
         <v>161</v>
       </c>
@@ -9414,7 +9424,7 @@
       <c r="AC135" s="20"/>
       <c r="AD135" s="52"/>
     </row>
-    <row r="136" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:30" s="18" customFormat="1">
       <c r="A136" s="18" t="s">
         <v>270</v>
       </c>
@@ -9445,7 +9455,7 @@
       <c r="AC136" s="20"/>
       <c r="AD136" s="51"/>
     </row>
-    <row r="137" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:30" s="18" customFormat="1">
       <c r="F137" s="18" t="s">
         <v>165</v>
       </c>
@@ -9473,7 +9483,7 @@
       <c r="AC137" s="20"/>
       <c r="AD137" s="51"/>
     </row>
-    <row r="138" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:30" s="18" customFormat="1">
       <c r="F138" s="18" t="s">
         <v>166</v>
       </c>
@@ -9501,7 +9511,7 @@
       <c r="AC138" s="20"/>
       <c r="AD138" s="51"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:30">
       <c r="A139" t="s">
         <v>280</v>
       </c>
@@ -9515,7 +9525,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:30">
       <c r="B140" t="s">
         <v>282</v>
       </c>
@@ -9526,7 +9536,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:30">
       <c r="B141" t="s">
         <v>283</v>
       </c>
@@ -9537,7 +9547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:30">
       <c r="A142" t="s">
         <v>288</v>
       </c>
@@ -9551,7 +9561,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:30">
       <c r="B143" t="s">
         <v>285</v>
       </c>
@@ -9562,7 +9572,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:30">
       <c r="B144" t="s">
         <v>286</v>
       </c>
@@ -9573,7 +9583,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="145" spans="2:7">
       <c r="B145" t="s">
         <v>287</v>
       </c>
@@ -9627,17 +9637,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4702565-7A6E-4D99-B133-0C24801BA2A0}">
   <dimension ref="B2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="11.1875" customWidth="1"/>
     <col min="3" max="3" width="9.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:20" ht="17.25" thickBot="1">
       <c r="B2">
         <v>0</v>
       </c>
@@ -9657,7 +9667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:20">
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
         <v>272</v>
@@ -9705,7 +9715,7 @@
       </c>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:20">
       <c r="B4" s="26"/>
       <c r="C4" s="20">
         <v>0</v>
@@ -9753,7 +9763,7 @@
       </c>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:20">
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
@@ -9811,7 +9821,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:20">
       <c r="B6" s="27" t="s">
         <v>299</v>
       </c>
@@ -9869,7 +9879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:20">
       <c r="B7" s="26" t="s">
         <v>279</v>
       </c>
@@ -9941,7 +9951,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
       <c r="B8" s="29"/>
       <c r="C8" s="30">
         <f>C6/C7</f>
@@ -10003,7 +10013,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:20" ht="17.25" thickBot="1">
       <c r="B9">
         <v>0.5</v>
       </c>
@@ -10023,7 +10033,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:20">
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
         <v>272</v>
@@ -10071,7 +10081,7 @@
       </c>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:20">
       <c r="B11" s="26"/>
       <c r="C11" s="20">
         <v>0</v>
@@ -10119,7 +10129,7 @@
       </c>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:20">
       <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
@@ -10177,7 +10187,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:20">
       <c r="B13" s="27" t="s">
         <v>299</v>
       </c>
@@ -10235,7 +10245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:20">
       <c r="B14" s="26" t="s">
         <v>279</v>
       </c>
@@ -10307,7 +10317,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:20" ht="17.25" thickBot="1">
       <c r="B15" s="29"/>
       <c r="C15" s="30">
         <f>C13/C14</f>
@@ -10369,7 +10379,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:20" ht="17.25" thickBot="1">
       <c r="B16">
         <v>1</v>
       </c>
@@ -10389,7 +10399,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:20">
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="s">
         <v>272</v>
@@ -10437,7 +10447,7 @@
       </c>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:20">
       <c r="B18" s="26"/>
       <c r="C18" s="20">
         <v>0</v>
@@ -10485,7 +10495,7 @@
       </c>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:20">
       <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
@@ -10543,7 +10553,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:20">
       <c r="B20" s="27" t="s">
         <v>299</v>
       </c>
@@ -10601,7 +10611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:20">
       <c r="B21" s="26" t="s">
         <v>279</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="2:20" ht="17.25" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="30">
         <f>C20/C21</f>
@@ -10735,7 +10745,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="2:20" ht="17.25" thickBot="1">
       <c r="B23">
         <v>0.1</v>
       </c>
@@ -10755,7 +10765,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:20">
       <c r="B24" s="24"/>
       <c r="C24" s="25" t="s">
         <v>272</v>
@@ -10803,7 +10813,7 @@
       </c>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:20">
       <c r="B25" s="26"/>
       <c r="C25" s="20">
         <v>0</v>
@@ -10851,7 +10861,7 @@
       </c>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:20">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
@@ -10909,7 +10919,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:20">
       <c r="B27" s="27" t="s">
         <v>299</v>
       </c>
@@ -10967,7 +10977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:20">
       <c r="B28" s="26" t="s">
         <v>279</v>
       </c>
@@ -11039,7 +11049,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="2:20" ht="17.25" thickBot="1">
       <c r="B29" s="29"/>
       <c r="C29" s="30">
         <f>C27/C28</f>
@@ -11101,7 +11111,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="2:20" ht="17.25" thickBot="1">
       <c r="B30">
         <v>0.2</v>
       </c>
@@ -11121,7 +11131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:20">
       <c r="B31" s="24"/>
       <c r="C31" s="25" t="s">
         <v>272</v>
@@ -11169,7 +11179,7 @@
       </c>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:20">
       <c r="B32" s="26"/>
       <c r="C32" s="20">
         <v>0</v>
@@ -11217,7 +11227,7 @@
       </c>
       <c r="T32" s="28"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:20">
       <c r="B33" s="27" t="s">
         <v>23</v>
       </c>
@@ -11275,7 +11285,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:20">
       <c r="B34" s="27" t="s">
         <v>299</v>
       </c>
@@ -11333,7 +11343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:20">
       <c r="B35" s="26" t="s">
         <v>279</v>
       </c>
@@ -11405,7 +11415,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="2:20" ht="17.25" thickBot="1">
       <c r="B36" s="29"/>
       <c r="C36" s="30">
         <f>C34/C35</f>
@@ -11467,7 +11477,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="2:20" ht="17.25" thickBot="1">
       <c r="B37">
         <v>0.3</v>
       </c>
@@ -11487,7 +11497,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:20">
       <c r="B38" s="24"/>
       <c r="C38" s="25" t="s">
         <v>272</v>
@@ -11535,7 +11545,7 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:20">
       <c r="B39" s="26"/>
       <c r="C39" s="20">
         <v>0</v>
@@ -11583,7 +11593,7 @@
       </c>
       <c r="T39" s="28"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:20">
       <c r="B40" s="27" t="s">
         <v>23</v>
       </c>
@@ -11641,7 +11651,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:20">
       <c r="B41" s="27" t="s">
         <v>299</v>
       </c>
@@ -11699,7 +11709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:20">
       <c r="B42" s="26" t="s">
         <v>279</v>
       </c>
@@ -11771,7 +11781,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="43" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="2:20" ht="17.25" thickBot="1">
       <c r="B43" s="29"/>
       <c r="C43" s="30">
         <f>C41/C42</f>
@@ -11833,7 +11843,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="2:20" ht="17.25" thickBot="1">
       <c r="B44">
         <v>0.4</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:20">
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
         <v>272</v>
@@ -11901,7 +11911,7 @@
       </c>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:20">
       <c r="B46" s="26"/>
       <c r="C46" s="20">
         <v>0</v>
@@ -11949,7 +11959,7 @@
       </c>
       <c r="T46" s="28"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:20">
       <c r="B47" s="27" t="s">
         <v>23</v>
       </c>
@@ -12007,7 +12017,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:20">
       <c r="B48" s="27" t="s">
         <v>299</v>
       </c>
@@ -12065,7 +12075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:20">
       <c r="B49" s="26" t="s">
         <v>279</v>
       </c>
@@ -12137,7 +12147,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="50" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="2:20" ht="17.25" thickBot="1">
       <c r="B50" s="29"/>
       <c r="C50" s="30">
         <f>C48/C49</f>
@@ -12199,7 +12209,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="2:20" ht="17.25" thickBot="1">
       <c r="B51">
         <v>0.6</v>
       </c>
@@ -12219,7 +12229,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:20">
       <c r="B52" s="24"/>
       <c r="C52" s="25" t="s">
         <v>272</v>
@@ -12267,7 +12277,7 @@
       </c>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:20">
       <c r="B53" s="26"/>
       <c r="C53" s="20">
         <v>0</v>
@@ -12315,7 +12325,7 @@
       </c>
       <c r="T53" s="28"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:20">
       <c r="B54" s="27" t="s">
         <v>23</v>
       </c>
@@ -12373,7 +12383,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:20">
       <c r="B55" s="27" t="s">
         <v>299</v>
       </c>
@@ -12431,7 +12441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:20">
       <c r="B56" s="26" t="s">
         <v>279</v>
       </c>
@@ -12503,7 +12513,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="57" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="2:20" ht="17.25" thickBot="1">
       <c r="B57" s="29"/>
       <c r="C57" s="30">
         <f>C55/C56</f>
@@ -12565,7 +12575,7 @@
       </c>
       <c r="T57" s="36"/>
     </row>
-    <row r="58" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="2:20" ht="17.25" thickBot="1">
       <c r="B58">
         <v>0.7</v>
       </c>
@@ -12585,7 +12595,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:20">
       <c r="B59" s="24"/>
       <c r="C59" s="25" t="s">
         <v>272</v>
@@ -12633,7 +12643,7 @@
       </c>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:20">
       <c r="B60" s="26"/>
       <c r="C60" s="20">
         <v>0</v>
@@ -12681,7 +12691,7 @@
       </c>
       <c r="T60" s="28"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:20">
       <c r="B61" s="27" t="s">
         <v>23</v>
       </c>
@@ -12739,7 +12749,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:20">
       <c r="B62" s="27" t="s">
         <v>299</v>
       </c>
@@ -12797,7 +12807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:20">
       <c r="B63" s="26" t="s">
         <v>279</v>
       </c>
@@ -12869,7 +12879,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="64" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="2:20" ht="17.25" thickBot="1">
       <c r="B64" s="29"/>
       <c r="C64" s="30">
         <f>C62/C63</f>
@@ -12931,7 +12941,7 @@
       </c>
       <c r="T64" s="36"/>
     </row>
-    <row r="65" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="2:20" ht="17.25" thickBot="1">
       <c r="B65">
         <v>0.8</v>
       </c>
@@ -12951,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:20">
       <c r="B66" s="24"/>
       <c r="C66" s="25" t="s">
         <v>272</v>
@@ -12999,7 +13009,7 @@
       </c>
       <c r="T66" s="31"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:20">
       <c r="B67" s="26"/>
       <c r="C67" s="20">
         <v>0</v>
@@ -13047,7 +13057,7 @@
       </c>
       <c r="T67" s="28"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:20">
       <c r="B68" s="27" t="s">
         <v>23</v>
       </c>
@@ -13105,7 +13115,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:20">
       <c r="B69" s="27" t="s">
         <v>299</v>
       </c>
@@ -13163,7 +13173,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:20">
       <c r="B70" s="26" t="s">
         <v>279</v>
       </c>
@@ -13235,7 +13245,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="71" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="2:20" ht="17.25" thickBot="1">
       <c r="B71" s="29"/>
       <c r="C71" s="30">
         <f>C69/C70</f>
@@ -13297,7 +13307,7 @@
       </c>
       <c r="T71" s="36"/>
     </row>
-    <row r="72" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="2:20" ht="17.25" thickBot="1">
       <c r="B72">
         <v>0.9</v>
       </c>
@@ -13308,7 +13318,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:20">
       <c r="B73" s="24"/>
       <c r="C73" s="25" t="s">
         <v>272</v>
@@ -13342,7 +13352,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="31"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:20">
       <c r="B74" s="26"/>
       <c r="C74" s="20">
         <v>0</v>
@@ -13376,7 +13386,7 @@
       <c r="S74" s="20"/>
       <c r="T74" s="28"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:20">
       <c r="B75" s="27" t="s">
         <v>23</v>
       </c>
@@ -13415,7 +13425,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="34"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:20">
       <c r="B76" s="27" t="s">
         <v>299</v>
       </c>
@@ -13454,7 +13464,7 @@
       <c r="S76" s="22"/>
       <c r="T76" s="34"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:20">
       <c r="B77" s="26" t="s">
         <v>279</v>
       </c>
@@ -13500,7 +13510,7 @@
       <c r="S77" s="20"/>
       <c r="T77" s="28"/>
     </row>
-    <row r="78" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="2:20" ht="17.25" thickBot="1">
       <c r="B78" s="29"/>
       <c r="C78" s="30">
         <f>C76/C77</f>
@@ -13541,7 +13551,7 @@
       <c r="S78" s="30"/>
       <c r="T78" s="36"/>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="81" spans="3:14">
       <c r="D81" s="55">
         <v>0</v>
       </c>
@@ -13576,7 +13586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="82" spans="3:14">
       <c r="C82" t="s">
         <v>300</v>
       </c>
@@ -13614,7 +13624,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="83" spans="3:14">
       <c r="C83" t="s">
         <v>301</v>
       </c>
@@ -13650,7 +13660,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="84" spans="3:14">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -13666,7 +13676,7 @@
       <c r="M84" s="55"/>
       <c r="N84" s="55"/>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.6">
+    <row r="85" spans="3:14">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -13690,13 +13700,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37C049D-D7B6-433B-9FDE-E9B6A2B6BB57}">
-  <dimension ref="B2:AN119"/>
+  <dimension ref="B2:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="11.1875" customWidth="1"/>
     <col min="3" max="3" width="9.9375" customWidth="1"/>
@@ -13705,7 +13715,7 @@
     <col min="12" max="12" width="15.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:40" ht="17.25" thickBot="1">
       <c r="B2">
         <v>0</v>
       </c>
@@ -13733,9 +13743,6 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
@@ -13746,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:40">
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
         <v>272</v>
@@ -13840,7 +13847,7 @@
       </c>
       <c r="AN3" s="31"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:40">
       <c r="B4" s="26"/>
       <c r="C4" s="20">
         <v>0</v>
@@ -13934,7 +13941,7 @@
       </c>
       <c r="AN4" s="28"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:40">
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
@@ -14048,7 +14055,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:40">
       <c r="B6" s="27" t="s">
         <v>299</v>
       </c>
@@ -14162,7 +14169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:40">
       <c r="B7" s="26" t="s">
         <v>279</v>
       </c>
@@ -14304,7 +14311,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="8" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:40" ht="17.25" thickBot="1">
       <c r="B8" s="29"/>
       <c r="C8" s="30">
         <f>C6/C7</f>
@@ -14426,7 +14433,7 @@
       </c>
       <c r="AN8" s="36"/>
     </row>
-    <row r="9" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:40" ht="17.25" thickBot="1">
       <c r="B9">
         <v>0</v>
       </c>
@@ -14455,10 +14462,10 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="AG9">
         <v>0.5</v>
@@ -14467,7 +14474,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:40">
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
         <v>272</v>
@@ -14561,7 +14568,7 @@
       </c>
       <c r="AN10" s="31"/>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:40">
       <c r="B11" s="26"/>
       <c r="C11" s="20">
         <v>0</v>
@@ -14655,7 +14662,7 @@
       </c>
       <c r="AN11" s="28"/>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:40">
       <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
@@ -14744,13 +14751,13 @@
         <v>23</v>
       </c>
       <c r="AG12" s="21">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH12" s="21">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AI12" s="21">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AJ12" s="21">
         <v>192</v>
@@ -14759,17 +14766,17 @@
         <v>183</v>
       </c>
       <c r="AL12" s="21">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AM12" s="21">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AN12" s="34">
         <f>SUM(AG12:AM12)</f>
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.6">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
       <c r="B13" s="27" t="s">
         <v>299</v>
       </c>
@@ -14858,32 +14865,39 @@
         <v>299</v>
       </c>
       <c r="AG13" s="22">
+        <f>AG7-AG12</f>
+        <v>8</v>
+      </c>
+      <c r="AH13" s="22">
+        <f>AH7-AH12</f>
+        <v>17</v>
+      </c>
+      <c r="AI13" s="22">
+        <f t="shared" ref="AI13" si="8">AI7-AI12</f>
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="22">
+        <f t="shared" ref="AJ13" si="9">AJ7-AJ12</f>
         <v>7</v>
       </c>
-      <c r="AH13" s="22">
+      <c r="AK13" s="22">
+        <f t="shared" ref="AK13" si="10">AK7-AK12</f>
         <v>10</v>
       </c>
-      <c r="AI13" s="22">
-        <v>6</v>
-      </c>
-      <c r="AJ13" s="22">
-        <v>7</v>
-      </c>
-      <c r="AK13" s="22">
-        <v>10</v>
-      </c>
       <c r="AL13" s="22">
-        <v>7</v>
+        <f t="shared" ref="AL13" si="11">AL7-AL12</f>
+        <v>16</v>
       </c>
       <c r="AM13" s="22">
-        <v>12</v>
+        <f t="shared" ref="AM13" si="12">AM7-AM12</f>
+        <v>18</v>
       </c>
       <c r="AN13" s="34">
         <f>SUM(AG13:AM13)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
       <c r="B14" s="26" t="s">
         <v>279</v>
       </c>
@@ -14892,27 +14906,27 @@
         <v>219</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" ref="D14:I14" si="8">D12+D13</f>
+        <f t="shared" ref="D14:I14" si="13">D12+D13</f>
         <v>202</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>203</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>199</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>193</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>218</v>
       </c>
       <c r="J14" s="28">
@@ -14927,27 +14941,27 @@
         <v>219</v>
       </c>
       <c r="N14" s="20">
-        <f t="shared" ref="N14:S14" si="9">N12+N13</f>
+        <f t="shared" ref="N14:S14" si="14">N12+N13</f>
         <v>202</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>203</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>199</v>
       </c>
       <c r="Q14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>193</v>
       </c>
       <c r="R14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="S14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>218</v>
       </c>
       <c r="T14" s="28">
@@ -14962,27 +14976,27 @@
         <v>219</v>
       </c>
       <c r="X14" s="20">
-        <f t="shared" ref="X14:AC14" si="10">X12+X13</f>
+        <f t="shared" ref="X14:AC14" si="15">X12+X13</f>
         <v>202</v>
       </c>
       <c r="Y14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>203</v>
       </c>
       <c r="Z14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>199</v>
       </c>
       <c r="AA14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>193</v>
       </c>
       <c r="AB14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>224</v>
       </c>
       <c r="AC14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>218</v>
       </c>
       <c r="AD14" s="28">
@@ -14997,27 +15011,27 @@
         <v>219</v>
       </c>
       <c r="AH14" s="20">
-        <f t="shared" ref="AH14:AM14" si="11">AH12+AH13</f>
+        <f t="shared" ref="AH14:AM14" si="16">AH12+AH13</f>
         <v>202</v>
       </c>
       <c r="AI14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>203</v>
       </c>
       <c r="AJ14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>199</v>
       </c>
       <c r="AK14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>193</v>
       </c>
       <c r="AL14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>224</v>
       </c>
       <c r="AM14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>218</v>
       </c>
       <c r="AN14" s="28">
@@ -15025,34 +15039,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:40" ht="17.25" thickBot="1">
       <c r="B15" s="29"/>
       <c r="C15" s="30">
         <f>C13/C14</f>
         <v>3.6529680365296802E-2</v>
       </c>
       <c r="D15" s="30">
-        <f t="shared" ref="D15:I15" si="12">D13/D14</f>
+        <f t="shared" ref="D15:I15" si="17">D13/D14</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="E15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.4778325123152709E-2</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2.6785714285714284E-2</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.5871559633027525E-2</v>
       </c>
       <c r="J15" s="36"/>
@@ -15062,27 +15076,27 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="N15" s="30">
-        <f t="shared" ref="N15:S15" si="13">N13/N14</f>
+        <f t="shared" ref="N15:S15" si="18">N13/N14</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="O15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="P15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="S15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="T15" s="36"/>
@@ -15092,62 +15106,62 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="X15" s="30">
-        <f t="shared" ref="X15:AC15" si="14">X13/X14</f>
+        <f t="shared" ref="X15:AC15" si="19">X13/X14</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="Y15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="Z15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="AC15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="AD15" s="36"/>
       <c r="AF15" s="29"/>
       <c r="AG15" s="30">
         <f>AG13/AG14</f>
-        <v>3.1963470319634701E-2</v>
+        <v>3.6529680365296802E-2</v>
       </c>
       <c r="AH15" s="30">
-        <f t="shared" ref="AH15:AM15" si="15">AH13/AH14</f>
-        <v>4.9504950495049507E-2</v>
+        <f t="shared" ref="AH15:AM15" si="20">AH13/AH14</f>
+        <v>8.4158415841584164E-2</v>
       </c>
       <c r="AI15" s="30">
-        <f t="shared" si="15"/>
-        <v>2.9556650246305417E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.4334975369458129E-2</v>
       </c>
       <c r="AJ15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL15" s="30">
-        <f t="shared" si="15"/>
-        <v>3.125E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="AM15" s="30">
-        <f t="shared" si="15"/>
-        <v>5.5045871559633031E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.2568807339449546E-2</v>
       </c>
       <c r="AN15" s="36"/>
     </row>
-    <row r="16" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:40" ht="17.25" thickBot="1">
       <c r="B16">
         <v>0</v>
       </c>
@@ -15176,10 +15190,10 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>0.3</v>
+        <v>90</v>
       </c>
       <c r="AG16">
         <v>0.5</v>
@@ -15188,7 +15202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:40">
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="s">
         <v>272</v>
@@ -15282,7 +15296,7 @@
       </c>
       <c r="AN17" s="31"/>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:40">
       <c r="B18" s="26"/>
       <c r="C18" s="20">
         <v>0</v>
@@ -15376,7 +15390,7 @@
       </c>
       <c r="AN18" s="28"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:40">
       <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
@@ -15465,10 +15479,10 @@
         <v>23</v>
       </c>
       <c r="AG19" s="21">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH19" s="21">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AI19" s="21">
         <v>195</v>
@@ -15480,17 +15494,17 @@
         <v>183</v>
       </c>
       <c r="AL19" s="21">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM19" s="21">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AN19" s="34">
         <f>SUM(AG19:AM19)</f>
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.6">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40">
       <c r="B20" s="27" t="s">
         <v>299</v>
       </c>
@@ -15579,32 +15593,39 @@
         <v>299</v>
       </c>
       <c r="AG20" s="22">
+        <f>AG14-AG19</f>
+        <v>9</v>
+      </c>
+      <c r="AH20" s="22">
+        <f>AH14-AH19</f>
+        <v>14</v>
+      </c>
+      <c r="AI20" s="22">
+        <f t="shared" ref="AI20:AM20" si="21">AI14-AI19</f>
         <v>8</v>
       </c>
-      <c r="AH20" s="22">
+      <c r="AJ20" s="22">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AK20" s="22">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AL20" s="22">
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AI20" s="22">
-        <v>8</v>
-      </c>
-      <c r="AJ20" s="22">
-        <v>7</v>
-      </c>
-      <c r="AK20" s="22">
-        <v>10</v>
-      </c>
-      <c r="AL20" s="22">
-        <v>9</v>
-      </c>
       <c r="AM20" s="22">
-        <v>12</v>
+        <f t="shared" si="21"/>
+        <v>18</v>
       </c>
       <c r="AN20" s="34">
         <f>SUM(AG20:AM20)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40">
       <c r="B21" s="26" t="s">
         <v>279</v>
       </c>
@@ -15613,27 +15634,27 @@
         <v>219</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" ref="D21:I21" si="16">D19+D20</f>
+        <f t="shared" ref="D21:I21" si="22">D19+D20</f>
         <v>202</v>
       </c>
       <c r="E21" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>203</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>199</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>193</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>224</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>218</v>
       </c>
       <c r="J21" s="28">
@@ -15648,27 +15669,27 @@
         <v>219</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" ref="N21:S21" si="17">N19+N20</f>
+        <f t="shared" ref="N21:S21" si="23">N19+N20</f>
         <v>202</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>203</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>199</v>
       </c>
       <c r="Q21" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>193</v>
       </c>
       <c r="R21" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>224</v>
       </c>
       <c r="S21" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>218</v>
       </c>
       <c r="T21" s="28">
@@ -15683,27 +15704,27 @@
         <v>219</v>
       </c>
       <c r="X21" s="20">
-        <f t="shared" ref="X21:AC21" si="18">X19+X20</f>
+        <f t="shared" ref="X21:AC21" si="24">X19+X20</f>
         <v>202</v>
       </c>
       <c r="Y21" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>203</v>
       </c>
       <c r="Z21" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>199</v>
       </c>
       <c r="AA21" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>193</v>
       </c>
       <c r="AB21" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>224</v>
       </c>
       <c r="AC21" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>218</v>
       </c>
       <c r="AD21" s="28">
@@ -15718,27 +15739,27 @@
         <v>219</v>
       </c>
       <c r="AH21" s="20">
-        <f t="shared" ref="AH21:AM21" si="19">AH19+AH20</f>
+        <f t="shared" ref="AH21:AM21" si="25">AH19+AH20</f>
         <v>202</v>
       </c>
       <c r="AI21" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>203</v>
       </c>
       <c r="AJ21" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>199</v>
       </c>
       <c r="AK21" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>193</v>
       </c>
       <c r="AL21" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>224</v>
       </c>
       <c r="AM21" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>218</v>
       </c>
       <c r="AN21" s="28">
@@ -15746,34 +15767,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="22" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="2:40" ht="17.25" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="30">
         <f>C20/C21</f>
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="D22" s="30">
-        <f t="shared" ref="D22:I22" si="20">D20/D21</f>
+        <f t="shared" ref="D22:I22" si="26">D20/D21</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="E22" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G22" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.125E-2</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="J22" s="36"/>
@@ -15783,27 +15804,27 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="N22" s="30">
-        <f t="shared" ref="N22:S22" si="21">N20/N21</f>
+        <f t="shared" ref="N22:S22" si="27">N20/N21</f>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="O22" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="P22" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q22" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R22" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="S22" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.1284403669724773E-2</v>
       </c>
       <c r="T22" s="36"/>
@@ -15813,62 +15834,62 @@
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="X22" s="30">
-        <f t="shared" ref="X22:AC22" si="22">X20/X21</f>
+        <f t="shared" ref="X22:AC22" si="28">X20/X21</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="Y22" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="Z22" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA22" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB22" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AC22" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.1284403669724773E-2</v>
       </c>
       <c r="AD22" s="36"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="30">
         <f>AG20/AG21</f>
-        <v>3.6529680365296802E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="AH22" s="30">
-        <f t="shared" ref="AH22:AM22" si="23">AH20/AH21</f>
-        <v>5.9405940594059403E-2</v>
+        <f t="shared" ref="AH22:AM22" si="29">AH20/AH21</f>
+        <v>6.9306930693069313E-2</v>
       </c>
       <c r="AI22" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="AJ22" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK22" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL22" s="30">
-        <f t="shared" si="23"/>
-        <v>4.0178571428571432E-2</v>
+        <f t="shared" si="29"/>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="AM22" s="30">
-        <f t="shared" si="23"/>
-        <v>5.5045871559633031E-2</v>
+        <f t="shared" si="29"/>
+        <v>8.2568807339449546E-2</v>
       </c>
       <c r="AN22" s="36"/>
     </row>
-    <row r="23" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="2:40" ht="17.25" thickBot="1">
       <c r="B23">
         <v>0</v>
       </c>
@@ -15897,10 +15918,10 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF23">
-        <v>0.4</v>
+        <v>115</v>
       </c>
       <c r="AG23">
         <v>0.5</v>
@@ -15909,7 +15930,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:40">
       <c r="B24" s="24"/>
       <c r="C24" s="25" t="s">
         <v>272</v>
@@ -16003,7 +16024,7 @@
       </c>
       <c r="AN24" s="31"/>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:40">
       <c r="B25" s="26"/>
       <c r="C25" s="20">
         <v>0</v>
@@ -16097,7 +16118,7 @@
       </c>
       <c r="AN25" s="28"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:40">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
@@ -16186,13 +16207,13 @@
         <v>23</v>
       </c>
       <c r="AG26" s="21">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH26" s="21">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI26" s="21">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AJ26" s="21">
         <v>192</v>
@@ -16201,17 +16222,17 @@
         <v>183</v>
       </c>
       <c r="AL26" s="21">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM26" s="21">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AN26" s="34">
         <f>SUM(AG26:AM26)</f>
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.6">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40">
       <c r="B27" s="27" t="s">
         <v>299</v>
       </c>
@@ -16300,32 +16321,39 @@
         <v>299</v>
       </c>
       <c r="AG27" s="22">
+        <f>AG21-AG26</f>
+        <v>9</v>
+      </c>
+      <c r="AH27" s="22">
+        <f>AH21-AH26</f>
+        <v>17</v>
+      </c>
+      <c r="AI27" s="22">
+        <f t="shared" ref="AI27" si="30">AI21-AI26</f>
         <v>8</v>
       </c>
-      <c r="AH27" s="22">
-        <v>12</v>
-      </c>
-      <c r="AI27" s="22">
-        <v>5</v>
-      </c>
       <c r="AJ27" s="22">
+        <f t="shared" ref="AJ27" si="31">AJ21-AJ26</f>
         <v>7</v>
       </c>
       <c r="AK27" s="22">
+        <f t="shared" ref="AK27" si="32">AK21-AK26</f>
         <v>10</v>
       </c>
       <c r="AL27" s="22">
-        <v>9</v>
+        <f t="shared" ref="AL27" si="33">AL21-AL26</f>
+        <v>11</v>
       </c>
       <c r="AM27" s="22">
-        <v>10</v>
+        <f t="shared" ref="AM27" si="34">AM21-AM26</f>
+        <v>17</v>
       </c>
       <c r="AN27" s="34">
         <f>SUM(AG27:AM27)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40">
       <c r="B28" s="26" t="s">
         <v>279</v>
       </c>
@@ -16334,27 +16362,27 @@
         <v>219</v>
       </c>
       <c r="D28" s="20">
-        <f t="shared" ref="D28:I28" si="24">D26+D27</f>
+        <f t="shared" ref="D28:I28" si="35">D26+D27</f>
         <v>202</v>
       </c>
       <c r="E28" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>203</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>199</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>193</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>224</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>218</v>
       </c>
       <c r="J28" s="28">
@@ -16369,27 +16397,27 @@
         <v>219</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" ref="N28:S28" si="25">N26+N27</f>
+        <f t="shared" ref="N28:S28" si="36">N26+N27</f>
         <v>202</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>203</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>199</v>
       </c>
       <c r="Q28" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>193</v>
       </c>
       <c r="R28" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>224</v>
       </c>
       <c r="S28" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>218</v>
       </c>
       <c r="T28" s="28">
@@ -16404,27 +16432,27 @@
         <v>219</v>
       </c>
       <c r="X28" s="20">
-        <f t="shared" ref="X28:AC28" si="26">X26+X27</f>
+        <f t="shared" ref="X28:AC28" si="37">X26+X27</f>
         <v>202</v>
       </c>
       <c r="Y28" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>203</v>
       </c>
       <c r="Z28" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>199</v>
       </c>
       <c r="AA28" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>193</v>
       </c>
       <c r="AB28" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>224</v>
       </c>
       <c r="AC28" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>218</v>
       </c>
       <c r="AD28" s="28">
@@ -16439,27 +16467,27 @@
         <v>219</v>
       </c>
       <c r="AH28" s="20">
-        <f t="shared" ref="AH28:AM28" si="27">AH26+AH27</f>
+        <f t="shared" ref="AH28:AM28" si="38">AH26+AH27</f>
         <v>202</v>
       </c>
       <c r="AI28" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>203</v>
       </c>
       <c r="AJ28" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>199</v>
       </c>
       <c r="AK28" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>193</v>
       </c>
       <c r="AL28" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>224</v>
       </c>
       <c r="AM28" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>218</v>
       </c>
       <c r="AN28" s="28">
@@ -16467,34 +16495,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="29" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="2:40" ht="17.25" thickBot="1">
       <c r="B29" s="29"/>
       <c r="C29" s="30">
         <f>C27/C28</f>
         <v>3.1963470319634701E-2</v>
       </c>
       <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="28">D27/D28</f>
+        <f t="shared" ref="D29:I29" si="39">D27/D28</f>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="E29" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="F29" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G29" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>3.125E-2</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="J29" s="36"/>
@@ -16504,27 +16532,27 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="N29" s="30">
-        <f t="shared" ref="N29:S29" si="29">N27/N28</f>
+        <f t="shared" ref="N29:S29" si="40">N27/N28</f>
         <v>4.4554455445544552E-2</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="P29" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q29" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R29" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="S29" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="T29" s="36"/>
@@ -16534,62 +16562,62 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="X29" s="30">
-        <f t="shared" ref="X29:AC29" si="30">X27/X28</f>
+        <f t="shared" ref="X29:AC29" si="41">X27/X28</f>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="Y29" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="Z29" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA29" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB29" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>4.9107142857142856E-2</v>
       </c>
       <c r="AC29" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>3.2110091743119268E-2</v>
       </c>
       <c r="AD29" s="36"/>
       <c r="AF29" s="29"/>
       <c r="AG29" s="30">
         <f>AG27/AG28</f>
-        <v>3.6529680365296802E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="AH29" s="30">
-        <f t="shared" ref="AH29:AM29" si="31">AH27/AH28</f>
-        <v>5.9405940594059403E-2</v>
+        <f t="shared" ref="AH29:AM29" si="42">AH27/AH28</f>
+        <v>8.4158415841584164E-2</v>
       </c>
       <c r="AI29" s="30">
-        <f t="shared" si="31"/>
-        <v>2.4630541871921183E-2</v>
+        <f t="shared" si="42"/>
+        <v>3.9408866995073892E-2</v>
       </c>
       <c r="AJ29" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK29" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL29" s="30">
-        <f t="shared" si="31"/>
-        <v>4.0178571428571432E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.9107142857142856E-2</v>
       </c>
       <c r="AM29" s="30">
-        <f t="shared" si="31"/>
-        <v>4.5871559633027525E-2</v>
+        <f t="shared" si="42"/>
+        <v>7.7981651376146793E-2</v>
       </c>
       <c r="AN29" s="36"/>
     </row>
-    <row r="30" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="2:40" ht="17.25" thickBot="1">
       <c r="B30">
         <v>0</v>
       </c>
@@ -16621,7 +16649,7 @@
         <v>5</v>
       </c>
       <c r="AF30">
-        <v>0.9</v>
+        <v>180</v>
       </c>
       <c r="AG30">
         <v>0.5</v>
@@ -16630,7 +16658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:40">
       <c r="B31" s="24"/>
       <c r="C31" s="25" t="s">
         <v>272</v>
@@ -16724,7 +16752,7 @@
       </c>
       <c r="AN31" s="31"/>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:40">
       <c r="B32" s="26"/>
       <c r="C32" s="20">
         <v>0</v>
@@ -16818,7 +16846,7 @@
       </c>
       <c r="AN32" s="28"/>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:40">
       <c r="B33" s="27" t="s">
         <v>23</v>
       </c>
@@ -16910,10 +16938,10 @@
         <v>209</v>
       </c>
       <c r="AH33" s="21">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AI33" s="21">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ33" s="21">
         <v>192</v>
@@ -16922,17 +16950,17 @@
         <v>183</v>
       </c>
       <c r="AL33" s="21">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AM33" s="21">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AN33" s="34">
         <f>SUM(AG33:AM33)</f>
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.6">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40">
       <c r="B34" s="27" t="s">
         <v>299</v>
       </c>
@@ -17021,32 +17049,39 @@
         <v>299</v>
       </c>
       <c r="AG34" s="22">
+        <f>AG28-AG33</f>
         <v>10</v>
       </c>
       <c r="AH34" s="22">
+        <f>AH28-AH33</f>
+        <v>15</v>
+      </c>
+      <c r="AI34" s="22">
+        <f t="shared" ref="AI34" si="43">AI28-AI33</f>
+        <v>9</v>
+      </c>
+      <c r="AJ34" s="22">
+        <f t="shared" ref="AJ34" si="44">AJ28-AJ33</f>
+        <v>7</v>
+      </c>
+      <c r="AK34" s="22">
+        <f t="shared" ref="AK34" si="45">AK28-AK33</f>
         <v>10</v>
       </c>
-      <c r="AI34" s="22">
-        <v>8</v>
-      </c>
-      <c r="AJ34" s="22">
-        <v>7</v>
-      </c>
-      <c r="AK34" s="22">
-        <v>10</v>
-      </c>
       <c r="AL34" s="22">
-        <v>7</v>
+        <f t="shared" ref="AL34" si="46">AL28-AL33</f>
+        <v>12</v>
       </c>
       <c r="AM34" s="22">
-        <v>12</v>
+        <f t="shared" ref="AM34" si="47">AM28-AM33</f>
+        <v>16</v>
       </c>
       <c r="AN34" s="34">
         <f>SUM(AG34:AM34)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:40">
       <c r="B35" s="26" t="s">
         <v>279</v>
       </c>
@@ -17055,23 +17090,23 @@
         <v>219</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ref="D35:H35" si="32">D33+D34</f>
+        <f t="shared" ref="D35:H35" si="48">D33+D34</f>
         <v>202</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>203</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>199</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>193</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>224</v>
       </c>
       <c r="I35" s="20">
@@ -17089,27 +17124,27 @@
         <v>219</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" ref="N35:S35" si="33">N33+N34</f>
+        <f t="shared" ref="N35:S35" si="49">N33+N34</f>
         <v>202</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>203</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>199</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>193</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>224</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>218</v>
       </c>
       <c r="T35" s="28">
@@ -17124,27 +17159,27 @@
         <v>219</v>
       </c>
       <c r="X35" s="20">
-        <f t="shared" ref="X35:AC35" si="34">X33+X34</f>
+        <f t="shared" ref="X35:AC35" si="50">X33+X34</f>
         <v>202</v>
       </c>
       <c r="Y35" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>203</v>
       </c>
       <c r="Z35" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>199</v>
       </c>
       <c r="AA35" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>193</v>
       </c>
       <c r="AB35" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>224</v>
       </c>
       <c r="AC35" s="20">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>218</v>
       </c>
       <c r="AD35" s="28">
@@ -17159,27 +17194,27 @@
         <v>219</v>
       </c>
       <c r="AH35" s="20">
-        <f t="shared" ref="AH35:AM35" si="35">AH33+AH34</f>
+        <f t="shared" ref="AH35:AM35" si="51">AH33+AH34</f>
         <v>202</v>
       </c>
       <c r="AI35" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>203</v>
       </c>
       <c r="AJ35" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>199</v>
       </c>
       <c r="AK35" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>193</v>
       </c>
       <c r="AL35" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>224</v>
       </c>
       <c r="AM35" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>218</v>
       </c>
       <c r="AN35" s="28">
@@ -17187,34 +17222,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="36" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="2:40" ht="17.25" thickBot="1">
       <c r="B36" s="29"/>
       <c r="C36" s="30">
         <f>C34/C35</f>
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="D36" s="30">
-        <f t="shared" ref="D36:I36" si="36">D34/D35</f>
+        <f t="shared" ref="D36:I36" si="52">D34/D35</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="E36" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="F36" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G36" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H36" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="I36" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="J36" s="36"/>
@@ -17224,27 +17259,27 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" ref="N36:S36" si="37">N34/N35</f>
+        <f t="shared" ref="N36:S36" si="53">N34/N35</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>2.4630541871921183E-2</v>
       </c>
       <c r="P36" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q36" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R36" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="S36" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="T36" s="36"/>
@@ -17254,27 +17289,27 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="X36" s="30">
-        <f t="shared" ref="X36:AC36" si="38">X34/X35</f>
+        <f t="shared" ref="X36:AC36" si="54">X34/X35</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="Y36" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="Z36" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA36" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB36" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>3.125E-2</v>
       </c>
       <c r="AC36" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="AD36" s="36"/>
@@ -17284,32 +17319,32 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="AH36" s="30">
-        <f t="shared" ref="AH36:AM36" si="39">AH34/AH35</f>
-        <v>4.9504950495049507E-2</v>
+        <f t="shared" ref="AH36:AM36" si="55">AH34/AH35</f>
+        <v>7.4257425742574254E-2</v>
       </c>
       <c r="AI36" s="30">
-        <f t="shared" si="39"/>
-        <v>3.9408866995073892E-2</v>
+        <f t="shared" si="55"/>
+        <v>4.4334975369458129E-2</v>
       </c>
       <c r="AJ36" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK36" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL36" s="30">
-        <f t="shared" si="39"/>
-        <v>3.125E-2</v>
+        <f t="shared" si="55"/>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="AM36" s="30">
-        <f t="shared" si="39"/>
-        <v>5.5045871559633031E-2</v>
+        <f t="shared" si="55"/>
+        <v>7.3394495412844041E-2</v>
       </c>
       <c r="AN36" s="36"/>
     </row>
-    <row r="37" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="2:40" ht="17.25" thickBot="1">
       <c r="B37">
         <v>0</v>
       </c>
@@ -17341,7 +17376,7 @@
         <v>6</v>
       </c>
       <c r="AF37">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="AG37">
         <v>0.5</v>
@@ -17350,7 +17385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:40">
       <c r="B38" s="24"/>
       <c r="C38" s="25" t="s">
         <v>272</v>
@@ -17444,7 +17479,7 @@
       </c>
       <c r="AN38" s="31"/>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:40">
       <c r="B39" s="26"/>
       <c r="C39" s="20">
         <v>0</v>
@@ -17538,7 +17573,7 @@
       </c>
       <c r="AN39" s="28"/>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:40">
       <c r="B40" s="27" t="s">
         <v>23</v>
       </c>
@@ -17630,10 +17665,10 @@
         <v>210</v>
       </c>
       <c r="AH40" s="21">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AI40" s="21">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ40" s="21">
         <v>192</v>
@@ -17642,17 +17677,17 @@
         <v>183</v>
       </c>
       <c r="AL40" s="21">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM40" s="21">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AN40" s="34">
         <f>SUM(AG40:AM40)</f>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.6">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="41" spans="2:40">
       <c r="B41" s="27" t="s">
         <v>299</v>
       </c>
@@ -17741,32 +17776,39 @@
         <v>299</v>
       </c>
       <c r="AG41" s="22">
+        <f>AG35-AG40</f>
         <v>9</v>
       </c>
       <c r="AH41" s="22">
-        <v>13</v>
+        <f>AH35-AH40</f>
+        <v>17</v>
       </c>
       <c r="AI41" s="22">
+        <f t="shared" ref="AI41" si="56">AI35-AI40</f>
+        <v>9</v>
+      </c>
+      <c r="AJ41" s="22">
+        <f t="shared" ref="AJ41" si="57">AJ35-AJ40</f>
+        <v>7</v>
+      </c>
+      <c r="AK41" s="22">
+        <f t="shared" ref="AK41" si="58">AK35-AK40</f>
         <v>10</v>
       </c>
-      <c r="AJ41" s="22">
-        <v>7</v>
-      </c>
-      <c r="AK41" s="22">
-        <v>10</v>
-      </c>
       <c r="AL41" s="22">
-        <v>9</v>
+        <f t="shared" ref="AL41" si="59">AL35-AL40</f>
+        <v>12</v>
       </c>
       <c r="AM41" s="22">
-        <v>12</v>
+        <f t="shared" ref="AM41" si="60">AM35-AM40</f>
+        <v>18</v>
       </c>
       <c r="AN41" s="34">
         <f>SUM(AG41:AM41)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:40">
       <c r="B42" s="26" t="s">
         <v>279</v>
       </c>
@@ -17775,27 +17817,27 @@
         <v>219</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" ref="D42:I42" si="40">D40+D41</f>
+        <f t="shared" ref="D42:I42" si="61">D40+D41</f>
         <v>202</v>
       </c>
       <c r="E42" s="20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>203</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>199</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>193</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>224</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>218</v>
       </c>
       <c r="J42" s="28">
@@ -17810,27 +17852,27 @@
         <v>219</v>
       </c>
       <c r="N42" s="20">
-        <f t="shared" ref="N42:S42" si="41">N40+N41</f>
+        <f t="shared" ref="N42:S42" si="62">N40+N41</f>
         <v>202</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>203</v>
       </c>
       <c r="P42" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>199</v>
       </c>
       <c r="Q42" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>193</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>224</v>
       </c>
       <c r="S42" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>218</v>
       </c>
       <c r="T42" s="28">
@@ -17845,27 +17887,27 @@
         <v>219</v>
       </c>
       <c r="X42" s="20">
-        <f t="shared" ref="X42:AC42" si="42">X40+X41</f>
+        <f t="shared" ref="X42:AC42" si="63">X40+X41</f>
         <v>202</v>
       </c>
       <c r="Y42" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>203</v>
       </c>
       <c r="Z42" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>199</v>
       </c>
       <c r="AA42" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>193</v>
       </c>
       <c r="AB42" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>224</v>
       </c>
       <c r="AC42" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>218</v>
       </c>
       <c r="AD42" s="28">
@@ -17880,27 +17922,27 @@
         <v>219</v>
       </c>
       <c r="AH42" s="20">
-        <f t="shared" ref="AH42:AM42" si="43">AH40+AH41</f>
+        <f t="shared" ref="AH42:AM42" si="64">AH40+AH41</f>
         <v>202</v>
       </c>
       <c r="AI42" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>203</v>
       </c>
       <c r="AJ42" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>199</v>
       </c>
       <c r="AK42" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>193</v>
       </c>
       <c r="AL42" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>224</v>
       </c>
       <c r="AM42" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>218</v>
       </c>
       <c r="AN42" s="28">
@@ -17908,34 +17950,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="43" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="2:40" ht="17.25" thickBot="1">
       <c r="B43" s="29"/>
       <c r="C43" s="30">
         <f>C41/C42</f>
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="D43" s="30">
-        <f t="shared" ref="D43:I43" si="44">D41/D42</f>
+        <f t="shared" ref="D43:I43" si="65">D41/D42</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="E43" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4.9261083743842367E-2</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="J43" s="36"/>
@@ -17945,27 +17987,27 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="N43" s="30">
-        <f t="shared" ref="N43:S43" si="45">N41/N42</f>
+        <f t="shared" ref="N43:S43" si="66">N41/N42</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="P43" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q43" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R43" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="S43" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="T43" s="36"/>
@@ -17975,27 +18017,27 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="X43" s="30">
-        <f t="shared" ref="X43:AC43" si="46">X41/X42</f>
+        <f t="shared" ref="X43:AC43" si="67">X41/X42</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="Y43" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="Z43" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA43" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB43" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AC43" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>4.5871559633027525E-2</v>
       </c>
       <c r="AD43" s="36"/>
@@ -18005,32 +18047,32 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="AH43" s="30">
-        <f t="shared" ref="AH43:AM43" si="47">AH41/AH42</f>
-        <v>6.4356435643564358E-2</v>
+        <f t="shared" ref="AH43:AM43" si="68">AH41/AH42</f>
+        <v>8.4158415841584164E-2</v>
       </c>
       <c r="AI43" s="30">
-        <f t="shared" si="47"/>
-        <v>4.9261083743842367E-2</v>
+        <f t="shared" si="68"/>
+        <v>4.4334975369458129E-2</v>
       </c>
       <c r="AJ43" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK43" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL43" s="30">
-        <f t="shared" si="47"/>
-        <v>4.0178571428571432E-2</v>
+        <f t="shared" si="68"/>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="AM43" s="30">
-        <f t="shared" si="47"/>
-        <v>5.5045871559633031E-2</v>
+        <f t="shared" si="68"/>
+        <v>8.2568807339449546E-2</v>
       </c>
       <c r="AN43" s="36"/>
     </row>
-    <row r="44" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="2:40" ht="17.25" thickBot="1">
       <c r="B44">
         <v>0</v>
       </c>
@@ -18062,7 +18104,7 @@
         <v>7</v>
       </c>
       <c r="AF44">
-        <v>0.3</v>
+        <v>90</v>
       </c>
       <c r="AG44">
         <v>0.5</v>
@@ -18071,7 +18113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:40">
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
         <v>272</v>
@@ -18165,7 +18207,7 @@
       </c>
       <c r="AN45" s="31"/>
     </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:40">
       <c r="B46" s="26"/>
       <c r="C46" s="20">
         <v>0</v>
@@ -18259,7 +18301,7 @@
       </c>
       <c r="AN46" s="28"/>
     </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:40">
       <c r="B47" s="27" t="s">
         <v>23</v>
       </c>
@@ -18373,7 +18415,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:40">
       <c r="B48" s="27" t="s">
         <v>299</v>
       </c>
@@ -18462,24 +18504,31 @@
         <v>299</v>
       </c>
       <c r="AG48" s="22">
+        <f>AG42-AG47</f>
         <v>13</v>
       </c>
       <c r="AH48" s="22">
+        <f>AH42-AH47</f>
         <v>10</v>
       </c>
       <c r="AI48" s="22">
+        <f t="shared" ref="AI48" si="69">AI42-AI47</f>
         <v>12</v>
       </c>
       <c r="AJ48" s="22">
+        <f t="shared" ref="AJ48" si="70">AJ42-AJ47</f>
         <v>7</v>
       </c>
       <c r="AK48" s="22">
+        <f t="shared" ref="AK48" si="71">AK42-AK47</f>
         <v>10</v>
       </c>
       <c r="AL48" s="22">
+        <f t="shared" ref="AL48" si="72">AL42-AL47</f>
         <v>8</v>
       </c>
       <c r="AM48" s="22">
+        <f t="shared" ref="AM48" si="73">AM42-AM47</f>
         <v>13</v>
       </c>
       <c r="AN48" s="34">
@@ -18487,7 +18536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:40">
       <c r="B49" s="26" t="s">
         <v>279</v>
       </c>
@@ -18496,27 +18545,27 @@
         <v>219</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" ref="D49:I49" si="48">D47+D48</f>
+        <f t="shared" ref="D49:I49" si="74">D47+D48</f>
         <v>202</v>
       </c>
       <c r="E49" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>203</v>
       </c>
       <c r="F49" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>199</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>193</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>224</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="74"/>
         <v>218</v>
       </c>
       <c r="J49" s="28">
@@ -18531,27 +18580,27 @@
         <v>219</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ref="N49:S49" si="49">N47+N48</f>
+        <f t="shared" ref="N49:S49" si="75">N47+N48</f>
         <v>202</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>203</v>
       </c>
       <c r="P49" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>199</v>
       </c>
       <c r="Q49" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>193</v>
       </c>
       <c r="R49" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>224</v>
       </c>
       <c r="S49" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="75"/>
         <v>218</v>
       </c>
       <c r="T49" s="28">
@@ -18566,27 +18615,27 @@
         <v>219</v>
       </c>
       <c r="X49" s="20">
-        <f t="shared" ref="X49:AC49" si="50">X47+X48</f>
+        <f t="shared" ref="X49:AC49" si="76">X47+X48</f>
         <v>202</v>
       </c>
       <c r="Y49" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="76"/>
         <v>203</v>
       </c>
       <c r="Z49" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="76"/>
         <v>199</v>
       </c>
       <c r="AA49" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="76"/>
         <v>193</v>
       </c>
       <c r="AB49" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="76"/>
         <v>224</v>
       </c>
       <c r="AC49" s="20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="76"/>
         <v>218</v>
       </c>
       <c r="AD49" s="28">
@@ -18601,27 +18650,27 @@
         <v>219</v>
       </c>
       <c r="AH49" s="20">
-        <f t="shared" ref="AH49:AM49" si="51">AH47+AH48</f>
+        <f t="shared" ref="AH49:AM49" si="77">AH47+AH48</f>
         <v>202</v>
       </c>
       <c r="AI49" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="77"/>
         <v>203</v>
       </c>
       <c r="AJ49" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="77"/>
         <v>199</v>
       </c>
       <c r="AK49" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="77"/>
         <v>193</v>
       </c>
       <c r="AL49" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="77"/>
         <v>224</v>
       </c>
       <c r="AM49" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="77"/>
         <v>218</v>
       </c>
       <c r="AN49" s="28">
@@ -18629,34 +18678,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="50" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="2:40" ht="17.25" thickBot="1">
       <c r="B50" s="29"/>
       <c r="C50" s="30">
         <f>C48/C49</f>
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="D50" s="30">
-        <f t="shared" ref="D50:I50" si="52">D48/D49</f>
+        <f t="shared" ref="D50:I50" si="78">D48/D49</f>
         <v>7.9207920792079209E-2</v>
       </c>
       <c r="E50" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="78"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="F50" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="78"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G50" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="78"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H50" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="78"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="I50" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="78"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="J50" s="36"/>
@@ -18666,27 +18715,27 @@
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="N50" s="30">
-        <f t="shared" ref="N50:S50" si="53">N48/N49</f>
+        <f t="shared" ref="N50:S50" si="79">N48/N49</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="O50" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="79"/>
         <v>4.4334975369458129E-2</v>
       </c>
       <c r="P50" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="79"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q50" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="79"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R50" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="79"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="S50" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="79"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="T50" s="36"/>
@@ -18696,27 +18745,27 @@
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="X50" s="30">
-        <f t="shared" ref="X50:AC50" si="54">X48/X49</f>
+        <f t="shared" ref="X50:AC50" si="80">X48/X49</f>
         <v>8.9108910891089105E-2</v>
       </c>
       <c r="Y50" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>6.4039408866995079E-2</v>
       </c>
       <c r="Z50" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA50" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>8.0357142857142863E-2</v>
       </c>
       <c r="AC50" s="30">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>5.5045871559633031E-2</v>
       </c>
       <c r="AD50" s="36"/>
@@ -18726,32 +18775,32 @@
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="AH50" s="30">
-        <f t="shared" ref="AH50:AM50" si="55">AH48/AH49</f>
+        <f t="shared" ref="AH50:AM50" si="81">AH48/AH49</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="AI50" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="81"/>
         <v>5.9113300492610835E-2</v>
       </c>
       <c r="AJ50" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="81"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK50" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="81"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL50" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="81"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AM50" s="30">
-        <f t="shared" si="55"/>
+        <f t="shared" si="81"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="AN50" s="36"/>
     </row>
-    <row r="51" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="2:40" ht="17.25" thickBot="1">
       <c r="B51">
         <v>0</v>
       </c>
@@ -18783,7 +18832,7 @@
         <v>8</v>
       </c>
       <c r="AF51">
-        <v>0.4</v>
+        <v>115</v>
       </c>
       <c r="AG51">
         <v>0.5</v>
@@ -18792,7 +18841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:40">
       <c r="B52" s="24"/>
       <c r="C52" s="25" t="s">
         <v>272</v>
@@ -18886,7 +18935,7 @@
       </c>
       <c r="AN52" s="31"/>
     </row>
-    <row r="53" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:40">
       <c r="B53" s="26"/>
       <c r="C53" s="20">
         <v>0</v>
@@ -18980,7 +19029,7 @@
       </c>
       <c r="AN53" s="28"/>
     </row>
-    <row r="54" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:40">
       <c r="B54" s="27" t="s">
         <v>23</v>
       </c>
@@ -19094,7 +19143,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="55" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:40">
       <c r="B55" s="27" t="s">
         <v>299</v>
       </c>
@@ -19183,24 +19232,31 @@
         <v>299</v>
       </c>
       <c r="AG55" s="22">
+        <f>AG49-AG54</f>
         <v>10</v>
       </c>
       <c r="AH55" s="22">
+        <f>AH49-AH54</f>
         <v>12</v>
       </c>
       <c r="AI55" s="22">
+        <f t="shared" ref="AI55" si="82">AI49-AI54</f>
         <v>7</v>
       </c>
       <c r="AJ55" s="22">
+        <f t="shared" ref="AJ55" si="83">AJ49-AJ54</f>
         <v>7</v>
       </c>
       <c r="AK55" s="22">
+        <f t="shared" ref="AK55" si="84">AK49-AK54</f>
         <v>10</v>
       </c>
       <c r="AL55" s="22">
+        <f t="shared" ref="AL55" si="85">AL49-AL54</f>
         <v>8</v>
       </c>
       <c r="AM55" s="22">
+        <f t="shared" ref="AM55" si="86">AM49-AM54</f>
         <v>11</v>
       </c>
       <c r="AN55" s="34">
@@ -19208,7 +19264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:40">
       <c r="B56" s="26" t="s">
         <v>279</v>
       </c>
@@ -19217,27 +19273,27 @@
         <v>219</v>
       </c>
       <c r="D56" s="20">
-        <f t="shared" ref="D56:I56" si="56">D54+D55</f>
+        <f t="shared" ref="D56:I56" si="87">D54+D55</f>
         <v>202</v>
       </c>
       <c r="E56" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>203</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>199</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>193</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>224</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>218</v>
       </c>
       <c r="J56" s="28">
@@ -19252,27 +19308,27 @@
         <v>219</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" ref="N56:S56" si="57">N54+N55</f>
+        <f t="shared" ref="N56:S56" si="88">N54+N55</f>
         <v>202</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="88"/>
         <v>203</v>
       </c>
       <c r="P56" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="88"/>
         <v>199</v>
       </c>
       <c r="Q56" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="88"/>
         <v>193</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="88"/>
         <v>224</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="88"/>
         <v>218</v>
       </c>
       <c r="T56" s="28">
@@ -19287,27 +19343,27 @@
         <v>219</v>
       </c>
       <c r="X56" s="20">
-        <f t="shared" ref="X56:AC56" si="58">X54+X55</f>
+        <f t="shared" ref="X56:AC56" si="89">X54+X55</f>
         <v>202</v>
       </c>
       <c r="Y56" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="89"/>
         <v>203</v>
       </c>
       <c r="Z56" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="89"/>
         <v>199</v>
       </c>
       <c r="AA56" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="89"/>
         <v>193</v>
       </c>
       <c r="AB56" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="89"/>
         <v>223</v>
       </c>
       <c r="AC56" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="89"/>
         <v>217</v>
       </c>
       <c r="AD56" s="28">
@@ -19322,27 +19378,27 @@
         <v>219</v>
       </c>
       <c r="AH56" s="20">
-        <f t="shared" ref="AH56:AM56" si="59">AH54+AH55</f>
+        <f t="shared" ref="AH56:AM56" si="90">AH54+AH55</f>
         <v>202</v>
       </c>
       <c r="AI56" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="90"/>
         <v>203</v>
       </c>
       <c r="AJ56" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="90"/>
         <v>199</v>
       </c>
       <c r="AK56" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="90"/>
         <v>193</v>
       </c>
       <c r="AL56" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="90"/>
         <v>224</v>
       </c>
       <c r="AM56" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="90"/>
         <v>218</v>
       </c>
       <c r="AN56" s="28">
@@ -19350,34 +19406,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="57" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="2:40" ht="17.25" thickBot="1">
       <c r="B57" s="29"/>
       <c r="C57" s="30">
         <f>C55/C56</f>
         <v>3.6529680365296802E-2</v>
       </c>
       <c r="D57" s="30">
-        <f t="shared" ref="D57:I57" si="60">D55/D56</f>
+        <f t="shared" ref="D57:I57" si="91">D55/D56</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="E57" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>4.4334975369458129E-2</v>
       </c>
       <c r="F57" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G57" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H57" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>3.125E-2</v>
       </c>
       <c r="I57" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="J57" s="36"/>
@@ -19387,27 +19443,27 @@
         <v>3.6529680365296802E-2</v>
       </c>
       <c r="N57" s="30">
-        <f t="shared" ref="N57:S57" si="61">N55/N56</f>
+        <f t="shared" ref="N57:S57" si="92">N55/N56</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="O57" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="92"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="P57" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="92"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q57" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="92"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R57" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="92"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="S57" s="30">
-        <f t="shared" si="61"/>
+        <f t="shared" si="92"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="T57" s="36"/>
@@ -19417,27 +19473,27 @@
         <v>3.6529680365296802E-2</v>
       </c>
       <c r="X57" s="30">
-        <f t="shared" ref="X57:AC57" si="62">X55/X56</f>
+        <f t="shared" ref="X57:AC57" si="93">X55/X56</f>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="Y57" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="Z57" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA57" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB57" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>3.5874439461883408E-2</v>
       </c>
       <c r="AC57" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>5.5299539170506916E-2</v>
       </c>
       <c r="AD57" s="36"/>
@@ -19447,32 +19503,32 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="AH57" s="30">
-        <f t="shared" ref="AH57:AM57" si="63">AH55/AH56</f>
+        <f t="shared" ref="AH57:AM57" si="94">AH55/AH56</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="AI57" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="94"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AJ57" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="94"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK57" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="94"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL57" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="94"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AM57" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="94"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="AN57" s="36"/>
     </row>
-    <row r="58" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="2:40" ht="17.25" thickBot="1">
       <c r="B58">
         <v>0</v>
       </c>
@@ -19504,7 +19560,7 @@
         <v>9</v>
       </c>
       <c r="AF58">
-        <v>0.9</v>
+        <v>180</v>
       </c>
       <c r="AG58">
         <v>0.5</v>
@@ -19513,7 +19569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:40">
       <c r="B59" s="24"/>
       <c r="C59" s="25" t="s">
         <v>272</v>
@@ -19607,7 +19663,7 @@
       </c>
       <c r="AN59" s="31"/>
     </row>
-    <row r="60" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:40">
       <c r="B60" s="26"/>
       <c r="C60" s="20">
         <v>0</v>
@@ -19701,7 +19757,7 @@
       </c>
       <c r="AN60" s="28"/>
     </row>
-    <row r="61" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:40">
       <c r="B61" s="27" t="s">
         <v>23</v>
       </c>
@@ -19815,7 +19871,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="62" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:40">
       <c r="B62" s="27" t="s">
         <v>299</v>
       </c>
@@ -19904,24 +19960,31 @@
         <v>299</v>
       </c>
       <c r="AG62" s="22">
+        <f>AG56-AG61</f>
         <v>11</v>
       </c>
       <c r="AH62" s="22">
+        <f>AH56-AH61</f>
         <v>14</v>
       </c>
       <c r="AI62" s="22">
+        <f t="shared" ref="AI62" si="95">AI56-AI61</f>
         <v>17</v>
       </c>
       <c r="AJ62" s="22">
+        <f t="shared" ref="AJ62" si="96">AJ56-AJ61</f>
         <v>7</v>
       </c>
       <c r="AK62" s="22">
+        <f t="shared" ref="AK62" si="97">AK56-AK61</f>
         <v>10</v>
       </c>
       <c r="AL62" s="22">
+        <f t="shared" ref="AL62" si="98">AL56-AL61</f>
         <v>36</v>
       </c>
       <c r="AM62" s="22">
+        <f t="shared" ref="AM62" si="99">AM56-AM61</f>
         <v>15</v>
       </c>
       <c r="AN62" s="34">
@@ -19929,7 +19992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:40">
       <c r="B63" s="26" t="s">
         <v>279</v>
       </c>
@@ -19938,27 +20001,27 @@
         <v>219</v>
       </c>
       <c r="D63" s="20">
-        <f t="shared" ref="D63:I63" si="64">D61+D62</f>
+        <f t="shared" ref="D63:I63" si="100">D61+D62</f>
         <v>202</v>
       </c>
       <c r="E63" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="100"/>
         <v>203</v>
       </c>
       <c r="F63" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="100"/>
         <v>199</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="100"/>
         <v>193</v>
       </c>
       <c r="H63" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="100"/>
         <v>224</v>
       </c>
       <c r="I63" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="100"/>
         <v>224</v>
       </c>
       <c r="J63" s="28">
@@ -19973,27 +20036,27 @@
         <v>219</v>
       </c>
       <c r="N63" s="20">
-        <f t="shared" ref="N63:S63" si="65">N61+N62</f>
+        <f t="shared" ref="N63:S63" si="101">N61+N62</f>
         <v>202</v>
       </c>
       <c r="O63" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="101"/>
         <v>203</v>
       </c>
       <c r="P63" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="101"/>
         <v>199</v>
       </c>
       <c r="Q63" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="101"/>
         <v>193</v>
       </c>
       <c r="R63" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="101"/>
         <v>224</v>
       </c>
       <c r="S63" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="101"/>
         <v>218</v>
       </c>
       <c r="T63" s="28">
@@ -20008,27 +20071,27 @@
         <v>219</v>
       </c>
       <c r="X63" s="20">
-        <f t="shared" ref="X63:AC63" si="66">X61+X62</f>
+        <f t="shared" ref="X63:AC63" si="102">X61+X62</f>
         <v>202</v>
       </c>
       <c r="Y63" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="102"/>
         <v>203</v>
       </c>
       <c r="Z63" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="102"/>
         <v>199</v>
       </c>
       <c r="AA63" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="102"/>
         <v>193</v>
       </c>
       <c r="AB63" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="102"/>
         <v>224</v>
       </c>
       <c r="AC63" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="102"/>
         <v>218</v>
       </c>
       <c r="AD63" s="28">
@@ -20043,27 +20106,27 @@
         <v>219</v>
       </c>
       <c r="AH63" s="20">
-        <f t="shared" ref="AH63:AM63" si="67">AH61+AH62</f>
+        <f t="shared" ref="AH63:AM63" si="103">AH61+AH62</f>
         <v>202</v>
       </c>
       <c r="AI63" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="103"/>
         <v>203</v>
       </c>
       <c r="AJ63" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="103"/>
         <v>199</v>
       </c>
       <c r="AK63" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="103"/>
         <v>193</v>
       </c>
       <c r="AL63" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="103"/>
         <v>224</v>
       </c>
       <c r="AM63" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="103"/>
         <v>218</v>
       </c>
       <c r="AN63" s="28">
@@ -20071,34 +20134,34 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="64" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="2:40" ht="17.25" thickBot="1">
       <c r="B64" s="29"/>
       <c r="C64" s="30">
         <f>C62/C63</f>
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="D64" s="30">
-        <f t="shared" ref="D64:I64" si="68">D62/D63</f>
+        <f t="shared" ref="D64:I64" si="104">D62/D63</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="E64" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="104"/>
         <v>8.3743842364532015E-2</v>
       </c>
       <c r="F64" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="104"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G64" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="104"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H64" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="104"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="I64" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="104"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="J64" s="36"/>
@@ -20108,27 +20171,27 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="N64" s="30">
-        <f t="shared" ref="N64:S64" si="69">N62/N63</f>
+        <f t="shared" ref="N64:S64" si="105">N62/N63</f>
         <v>5.4455445544554455E-2</v>
       </c>
       <c r="O64" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="105"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="P64" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="105"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="Q64" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="105"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="R64" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="105"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="S64" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="105"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="T64" s="36"/>
@@ -20138,27 +20201,27 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="X64" s="30">
-        <f t="shared" ref="X64:AC64" si="70">X62/X63</f>
+        <f t="shared" ref="X64:AC64" si="106">X62/X63</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="106"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="Z64" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="106"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AA64" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="106"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AB64" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="106"/>
         <v>4.0178571428571432E-2</v>
       </c>
       <c r="AC64" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="106"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="AD64" s="36"/>
@@ -20168,32 +20231,32 @@
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="AH64" s="30">
-        <f t="shared" ref="AH64:AM64" si="71">AH62/AH63</f>
+        <f t="shared" ref="AH64:AM64" si="107">AH62/AH63</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="AI64" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="107"/>
         <v>8.3743842364532015E-2</v>
       </c>
       <c r="AJ64" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="107"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK64" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="107"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL64" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="107"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="AM64" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="107"/>
         <v>6.8807339449541288E-2</v>
       </c>
       <c r="AN64" s="36"/>
     </row>
-    <row r="65" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="2:40" ht="17.25" thickBot="1">
       <c r="B65">
         <v>0</v>
       </c>
@@ -20225,7 +20288,7 @@
         <v>10</v>
       </c>
       <c r="AF65">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="AG65">
         <v>0.4</v>
@@ -20234,7 +20297,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:40">
       <c r="AF66" s="24"/>
       <c r="AG66" s="25" t="s">
         <v>272</v>
@@ -20259,7 +20322,7 @@
       </c>
       <c r="AN66" s="31"/>
     </row>
-    <row r="67" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:40">
       <c r="AF67" s="26"/>
       <c r="AG67" s="20">
         <v>0</v>
@@ -20284,7 +20347,7 @@
       </c>
       <c r="AN67" s="28"/>
     </row>
-    <row r="68" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:40">
       <c r="AF68" s="27" t="s">
         <v>23</v>
       </c>
@@ -20314,7 +20377,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="69" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:40">
       <c r="D69" s="59">
         <v>0</v>
       </c>
@@ -20377,14 +20440,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:40" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:40">
       <c r="B70" t="s">
         <v>304</v>
       </c>
       <c r="C70" t="s">
         <v>301</v>
       </c>
-      <c r="D70" s="68">
+      <c r="D70" s="92">
         <v>63</v>
       </c>
       <c r="E70" s="58">
@@ -20423,27 +20486,27 @@
         <v>219</v>
       </c>
       <c r="AH70" s="20">
-        <f t="shared" ref="AH70:AM70" si="72">AH68+AH69</f>
+        <f t="shared" ref="AH70:AM70" si="108">AH68+AH69</f>
         <v>202</v>
       </c>
       <c r="AI70" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="108"/>
         <v>203</v>
       </c>
       <c r="AJ70" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="108"/>
         <v>199</v>
       </c>
       <c r="AK70" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="108"/>
         <v>193</v>
       </c>
       <c r="AL70" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="108"/>
         <v>224</v>
       </c>
       <c r="AM70" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="108"/>
         <v>218</v>
       </c>
       <c r="AN70" s="28">
@@ -20451,14 +20514,14 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="71" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="2:40" ht="17.25" thickBot="1">
       <c r="B71" t="s">
         <v>305</v>
       </c>
       <c r="C71" t="s">
         <v>302</v>
       </c>
-      <c r="D71" s="69"/>
+      <c r="D71" s="93"/>
       <c r="E71" s="58">
         <v>69</v>
       </c>
@@ -20493,39 +20556,39 @@
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="AH71" s="30">
-        <f t="shared" ref="AH71:AM71" si="73">AH69/AH70</f>
+        <f t="shared" ref="AH71:AM71" si="109">AH69/AH70</f>
         <v>5.4455445544554455E-2</v>
       </c>
       <c r="AI71" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="109"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AJ71" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="109"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK71" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="109"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL71" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="109"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AM71" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="109"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="AN71" s="36"/>
     </row>
-    <row r="72" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="2:40" ht="17.25" thickBot="1">
       <c r="B72" t="s">
         <v>306</v>
       </c>
       <c r="C72" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="70"/>
+      <c r="D72" s="94"/>
       <c r="E72" s="58">
         <v>64</v>
       </c>
@@ -20558,7 +20621,7 @@
         <v>11</v>
       </c>
       <c r="AF72">
-        <v>0.3</v>
+        <v>90</v>
       </c>
       <c r="AG72">
         <v>0.4</v>
@@ -20567,7 +20630,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="2:40" ht="17.25" thickBot="1">
       <c r="AF73" s="24"/>
       <c r="AG73" s="25" t="s">
         <v>272</v>
@@ -20592,35 +20655,35 @@
       </c>
       <c r="AN73" s="31"/>
     </row>
-    <row r="74" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B74" s="80" t="s">
+    <row r="74" spans="2:40">
+      <c r="B74" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="81" t="s">
+      <c r="D74" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="E74" s="81" t="s">
+      <c r="E74" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="F74" s="82" t="s">
+      <c r="F74" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="H74" s="80" t="s">
+      <c r="H74" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="I74" s="81" t="s">
+      <c r="I74" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="J74" s="81" t="s">
+      <c r="J74" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="K74" s="81" t="s">
+      <c r="K74" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="L74" s="82" t="s">
+      <c r="L74" s="74" t="s">
         <v>311</v>
       </c>
       <c r="AF74" s="26"/>
@@ -20647,23 +20710,23 @@
       </c>
       <c r="AN74" s="28"/>
     </row>
-    <row r="75" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B75" s="71">
+    <row r="75" spans="2:40">
+      <c r="B75" s="83">
         <v>1</v>
       </c>
-      <c r="C75" s="58">
-        <v>45</v>
-      </c>
-      <c r="D75" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="E75" s="58">
+      <c r="C75" s="78">
+        <v>0</v>
+      </c>
+      <c r="D75" s="78">
+        <v>0</v>
+      </c>
+      <c r="E75" s="78">
         <v>0.2</v>
       </c>
-      <c r="F75" s="74">
-        <v>1399</v>
-      </c>
-      <c r="H75" s="71">
+      <c r="F75" s="77">
+        <v>1403</v>
+      </c>
+      <c r="H75" s="63">
         <v>1</v>
       </c>
       <c r="I75" s="55">
@@ -20675,7 +20738,7 @@
       <c r="K75" s="55">
         <v>0</v>
       </c>
-      <c r="L75" s="74">
+      <c r="L75" s="66">
         <v>1395</v>
       </c>
       <c r="AF75" s="27" t="s">
@@ -20707,23 +20770,23 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="76" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B76" s="73">
+    <row r="76" spans="2:40">
+      <c r="B76" s="84">
         <v>2</v>
       </c>
-      <c r="C76" s="55">
-        <v>90</v>
-      </c>
-      <c r="D76" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="E76" s="55">
+      <c r="C76" s="85">
+        <v>45</v>
+      </c>
+      <c r="D76" s="85">
+        <v>0</v>
+      </c>
+      <c r="E76" s="85">
         <v>0.2</v>
       </c>
-      <c r="F76" s="72">
-        <v>1392</v>
-      </c>
-      <c r="H76" s="73">
+      <c r="F76" s="86">
+        <v>1391</v>
+      </c>
+      <c r="H76" s="65">
         <v>2</v>
       </c>
       <c r="I76" s="58">
@@ -20735,31 +20798,38 @@
       <c r="K76" s="58">
         <v>0.1</v>
       </c>
-      <c r="L76" s="74">
-        <v>1396</v>
+      <c r="L76" s="66">
+        <v>1399</v>
       </c>
       <c r="AF76" s="27" t="s">
         <v>299</v>
       </c>
       <c r="AG76" s="22">
+        <f>AG70-AG75</f>
         <v>9</v>
       </c>
       <c r="AH76" s="22">
+        <f>AH70-AH75</f>
         <v>12</v>
       </c>
       <c r="AI76" s="22">
+        <f t="shared" ref="AI76" si="110">AI70-AI75</f>
         <v>8</v>
       </c>
       <c r="AJ76" s="22">
+        <f t="shared" ref="AJ76" si="111">AJ70-AJ75</f>
         <v>7</v>
       </c>
       <c r="AK76" s="22">
+        <f t="shared" ref="AK76" si="112">AK70-AK75</f>
         <v>10</v>
       </c>
       <c r="AL76" s="22">
+        <f t="shared" ref="AL76" si="113">AL70-AL75</f>
         <v>6</v>
       </c>
       <c r="AM76" s="22">
+        <f t="shared" ref="AM76" si="114">AM70-AM75</f>
         <v>11</v>
       </c>
       <c r="AN76" s="34">
@@ -20767,36 +20837,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B77" s="71">
+    <row r="77" spans="2:40">
+      <c r="B77" s="63">
         <v>3</v>
       </c>
       <c r="C77" s="55">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D77" s="55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E77" s="55">
         <v>0.2</v>
       </c>
-      <c r="F77" s="72">
-        <v>1397</v>
-      </c>
-      <c r="H77" s="83">
+      <c r="F77" s="64">
+        <v>1398</v>
+      </c>
+      <c r="H77" s="75">
         <v>3</v>
       </c>
-      <c r="I77" s="84">
-        <v>0</v>
-      </c>
-      <c r="J77" s="84">
-        <v>0</v>
-      </c>
-      <c r="K77" s="84">
+      <c r="I77" s="76">
+        <v>0</v>
+      </c>
+      <c r="J77" s="76">
+        <v>0</v>
+      </c>
+      <c r="K77" s="76">
         <v>0.2</v>
       </c>
-      <c r="L77" s="85">
-        <v>1400</v>
+      <c r="L77" s="77">
+        <v>1403</v>
       </c>
       <c r="AF77" s="26" t="s">
         <v>279</v>
@@ -20806,27 +20876,27 @@
         <v>219</v>
       </c>
       <c r="AH77" s="20">
-        <f t="shared" ref="AH77:AM77" si="74">AH75+AH76</f>
+        <f t="shared" ref="AH77:AM77" si="115">AH75+AH76</f>
         <v>202</v>
       </c>
       <c r="AI77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="115"/>
         <v>203</v>
       </c>
       <c r="AJ77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="115"/>
         <v>199</v>
       </c>
       <c r="AK77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="115"/>
         <v>193</v>
       </c>
       <c r="AL77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="115"/>
         <v>224</v>
       </c>
       <c r="AM77" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="115"/>
         <v>218</v>
       </c>
       <c r="AN77" s="28">
@@ -20834,23 +20904,23 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="78" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B78" s="71">
+    <row r="78" spans="2:40" ht="17.25" thickBot="1">
+      <c r="B78" s="67">
         <v>4</v>
       </c>
-      <c r="C78" s="62">
+      <c r="C78" s="55">
         <v>180</v>
       </c>
-      <c r="D78" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="62">
+      <c r="D78" s="55">
+        <v>0</v>
+      </c>
+      <c r="E78" s="55">
         <v>0.2</v>
       </c>
-      <c r="F78" s="72">
-        <v>1394</v>
-      </c>
-      <c r="H78" s="71">
+      <c r="F78" s="64">
+        <v>1400</v>
+      </c>
+      <c r="H78" s="63">
         <v>4</v>
       </c>
       <c r="I78" s="55">
@@ -20862,7 +20932,7 @@
       <c r="K78" s="55">
         <v>0.3</v>
       </c>
-      <c r="L78" s="74">
+      <c r="L78" s="66">
         <v>1394</v>
       </c>
       <c r="AF78" s="29"/>
@@ -20871,48 +20941,48 @@
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="AH78" s="30">
-        <f t="shared" ref="AH78:AM78" si="75">AH76/AH77</f>
+        <f t="shared" ref="AH78:AM78" si="116">AH76/AH77</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="AI78" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="116"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="AJ78" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="116"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK78" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="116"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL78" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="116"/>
         <v>2.6785714285714284E-2</v>
       </c>
       <c r="AM78" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="116"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="AN78" s="36"/>
     </row>
-    <row r="79" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B79" s="75">
+    <row r="79" spans="2:40" ht="17.25" thickBot="1">
+      <c r="B79" s="63">
         <v>5</v>
       </c>
-      <c r="C79" s="58">
-        <v>45</v>
-      </c>
-      <c r="D79" s="55">
-        <v>0.5</v>
+      <c r="C79" s="62">
+        <v>0</v>
+      </c>
+      <c r="D79" s="62">
+        <v>0</v>
       </c>
       <c r="E79" s="55">
         <v>0.5</v>
       </c>
-      <c r="F79" s="72">
-        <v>1388</v>
-      </c>
-      <c r="H79" s="75">
+      <c r="F79" s="64">
+        <v>1396</v>
+      </c>
+      <c r="H79" s="67">
         <v>5</v>
       </c>
       <c r="I79" s="55">
@@ -20924,14 +20994,14 @@
       <c r="K79" s="58">
         <v>0.4</v>
       </c>
-      <c r="L79" s="74">
-        <v>1395</v>
+      <c r="L79" s="66">
+        <v>1398</v>
       </c>
       <c r="AE79">
         <v>12</v>
       </c>
       <c r="AF79">
-        <v>0.4</v>
+        <v>115</v>
       </c>
       <c r="AG79">
         <v>0.4</v>
@@ -20940,23 +21010,23 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B80" s="71">
+    <row r="80" spans="2:40">
+      <c r="B80" s="63">
         <v>6</v>
       </c>
-      <c r="C80" s="55">
-        <v>90</v>
+      <c r="C80" s="58">
+        <v>45</v>
       </c>
       <c r="D80" s="55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E80" s="55">
         <v>0.5</v>
       </c>
-      <c r="F80" s="72">
-        <v>1385</v>
-      </c>
-      <c r="H80" s="71">
+      <c r="F80" s="64">
+        <v>1390</v>
+      </c>
+      <c r="H80" s="63">
         <v>6</v>
       </c>
       <c r="I80" s="55">
@@ -20968,8 +21038,8 @@
       <c r="K80" s="55">
         <v>0.5</v>
       </c>
-      <c r="L80" s="74">
-        <v>1396</v>
+      <c r="L80" s="66">
+        <v>1400</v>
       </c>
       <c r="AF80" s="24"/>
       <c r="AG80" s="25" t="s">
@@ -20995,23 +21065,23 @@
       </c>
       <c r="AN80" s="31"/>
     </row>
-    <row r="81" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B81" s="71">
+    <row r="81" spans="2:40">
+      <c r="B81" s="63">
         <v>7</v>
       </c>
       <c r="C81" s="55">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D81" s="55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E81" s="55">
         <v>0.5</v>
       </c>
-      <c r="F81" s="72">
-        <v>1393</v>
-      </c>
-      <c r="H81" s="71">
+      <c r="F81" s="64">
+        <v>1385</v>
+      </c>
+      <c r="H81" s="63">
         <v>7</v>
       </c>
       <c r="I81" s="55">
@@ -21023,7 +21093,7 @@
       <c r="K81" s="55">
         <v>0.6</v>
       </c>
-      <c r="L81" s="74">
+      <c r="L81" s="66">
         <v>1385</v>
       </c>
       <c r="AF81" s="26"/>
@@ -21050,23 +21120,23 @@
       </c>
       <c r="AN81" s="28"/>
     </row>
-    <row r="82" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B82" s="71">
+    <row r="82" spans="2:40">
+      <c r="B82" s="63">
         <v>8</v>
       </c>
-      <c r="C82" s="62">
+      <c r="C82" s="55">
         <v>180</v>
       </c>
       <c r="D82" s="55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E82" s="55">
         <v>0.5</v>
       </c>
-      <c r="F82" s="72">
-        <v>1348</v>
-      </c>
-      <c r="H82" s="71">
+      <c r="F82" s="64">
+        <v>1393</v>
+      </c>
+      <c r="H82" s="63">
         <v>8</v>
       </c>
       <c r="I82" s="55">
@@ -21078,7 +21148,7 @@
       <c r="K82" s="58">
         <v>0.7</v>
       </c>
-      <c r="L82" s="74">
+      <c r="L82" s="66">
         <v>1386</v>
       </c>
       <c r="AF82" s="27" t="s">
@@ -21110,23 +21180,23 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="83" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B83" s="71">
+    <row r="83" spans="2:40">
+      <c r="B83" s="63">
         <v>9</v>
       </c>
-      <c r="C83" s="58">
-        <v>45</v>
+      <c r="C83" s="62">
+        <v>0</v>
       </c>
       <c r="D83" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E83" s="55">
         <v>0.2</v>
       </c>
-      <c r="F83" s="72">
-        <v>1393</v>
-      </c>
-      <c r="H83" s="71">
+      <c r="F83" s="64">
+        <v>1348</v>
+      </c>
+      <c r="H83" s="63">
         <v>9</v>
       </c>
       <c r="I83" s="55">
@@ -21138,31 +21208,38 @@
       <c r="K83" s="55">
         <v>0.8</v>
       </c>
-      <c r="L83" s="74">
+      <c r="L83" s="66">
         <v>1394</v>
       </c>
       <c r="AF83" s="27" t="s">
         <v>299</v>
       </c>
       <c r="AG83" s="22">
+        <f>AG77-AG82</f>
         <v>14</v>
       </c>
       <c r="AH83" s="22">
+        <f>AH77-AH82</f>
         <v>12</v>
       </c>
       <c r="AI83" s="22">
+        <f t="shared" ref="AI83" si="117">AI77-AI82</f>
         <v>18</v>
       </c>
       <c r="AJ83" s="22">
+        <f t="shared" ref="AJ83" si="118">AJ77-AJ82</f>
         <v>7</v>
       </c>
       <c r="AK83" s="22">
+        <f t="shared" ref="AK83" si="119">AK77-AK82</f>
         <v>10</v>
       </c>
       <c r="AL83" s="22">
+        <f t="shared" ref="AL83" si="120">AL77-AL82</f>
         <v>11</v>
       </c>
       <c r="AM83" s="22">
+        <f t="shared" ref="AM83" si="121">AM77-AM82</f>
         <v>16</v>
       </c>
       <c r="AN83" s="34">
@@ -21170,35 +21247,35 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B84" s="71">
+    <row r="84" spans="2:40" ht="17.25" thickBot="1">
+      <c r="B84" s="63">
         <v>10</v>
       </c>
-      <c r="C84" s="55">
-        <v>90</v>
+      <c r="C84" s="58">
+        <v>45</v>
       </c>
       <c r="D84" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E84" s="55">
         <v>0.2</v>
       </c>
-      <c r="F84" s="72">
-        <v>1395</v>
-      </c>
-      <c r="H84" s="76">
+      <c r="F84" s="64">
+        <v>1393</v>
+      </c>
+      <c r="H84" s="68">
         <v>10</v>
       </c>
-      <c r="I84" s="77">
-        <v>0</v>
-      </c>
-      <c r="J84" s="77">
-        <v>0</v>
-      </c>
-      <c r="K84" s="77">
+      <c r="I84" s="69">
+        <v>0</v>
+      </c>
+      <c r="J84" s="69">
+        <v>0</v>
+      </c>
+      <c r="K84" s="69">
         <v>0.9</v>
       </c>
-      <c r="L84" s="79">
+      <c r="L84" s="71">
         <v>1381</v>
       </c>
       <c r="AF84" s="26" t="s">
@@ -21209,27 +21286,27 @@
         <v>219</v>
       </c>
       <c r="AH84" s="20">
-        <f t="shared" ref="AH84:AM84" si="76">AH82+AH83</f>
+        <f t="shared" ref="AH84:AM84" si="122">AH82+AH83</f>
         <v>202</v>
       </c>
       <c r="AI84" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>203</v>
       </c>
       <c r="AJ84" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>199</v>
       </c>
       <c r="AK84" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>193</v>
       </c>
       <c r="AL84" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>224</v>
       </c>
       <c r="AM84" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="122"/>
         <v>218</v>
       </c>
       <c r="AN84" s="28">
@@ -21237,21 +21314,21 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="85" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B85" s="71">
+    <row r="85" spans="2:40" ht="17.25" thickBot="1">
+      <c r="B85" s="63">
         <v>11</v>
       </c>
       <c r="C85" s="55">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D85" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E85" s="55">
         <v>0.2</v>
       </c>
-      <c r="F85" s="72">
-        <v>1370</v>
+      <c r="F85" s="64">
+        <v>1395</v>
       </c>
       <c r="AF85" s="29"/>
       <c r="AG85" s="30">
@@ -21259,67 +21336,67 @@
         <v>6.3926940639269403E-2</v>
       </c>
       <c r="AH85" s="30">
-        <f t="shared" ref="AH85:AM85" si="77">AH83/AH84</f>
+        <f t="shared" ref="AH85:AM85" si="123">AH83/AH84</f>
         <v>5.9405940594059403E-2</v>
       </c>
       <c r="AI85" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>8.8669950738916259E-2</v>
       </c>
       <c r="AJ85" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK85" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL85" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>4.9107142857142856E-2</v>
       </c>
       <c r="AM85" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="123"/>
         <v>7.3394495412844041E-2</v>
       </c>
       <c r="AN85" s="36"/>
     </row>
-    <row r="86" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B86" s="71">
+    <row r="86" spans="2:40" ht="17.25" thickBot="1">
+      <c r="B86" s="63">
         <v>12</v>
       </c>
-      <c r="C86" s="62">
+      <c r="C86" s="55">
         <v>180</v>
       </c>
       <c r="D86" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E86" s="55">
         <v>0.2</v>
       </c>
-      <c r="F86" s="72">
-        <v>1395</v>
-      </c>
-      <c r="H86" s="80" t="s">
+      <c r="F86" s="64">
+        <v>1370</v>
+      </c>
+      <c r="H86" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="I86" s="81" t="s">
+      <c r="I86" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="J86" s="81" t="s">
+      <c r="J86" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="K86" s="81" t="s">
+      <c r="K86" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="L86" s="82" t="s">
+      <c r="L86" s="74" t="s">
         <v>311</v>
       </c>
       <c r="AE86">
         <v>13</v>
       </c>
       <c r="AF86">
-        <v>0.9</v>
+        <v>180</v>
       </c>
       <c r="AG86">
         <v>0.4</v>
@@ -21328,23 +21405,23 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B87" s="71">
+    <row r="87" spans="2:40">
+      <c r="B87" s="63">
         <v>13</v>
       </c>
-      <c r="C87" s="58">
-        <v>45</v>
+      <c r="C87" s="62">
+        <v>0</v>
       </c>
       <c r="D87" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E87" s="55">
         <v>0.5</v>
       </c>
-      <c r="F87" s="72">
-        <v>1384</v>
-      </c>
-      <c r="H87" s="71">
+      <c r="F87" s="64">
+        <v>1398</v>
+      </c>
+      <c r="H87" s="63">
         <v>1</v>
       </c>
       <c r="I87" s="55">
@@ -21356,7 +21433,7 @@
       <c r="K87" s="55">
         <v>0</v>
       </c>
-      <c r="L87" s="74">
+      <c r="L87" s="66">
         <v>1394</v>
       </c>
       <c r="AF87" s="24"/>
@@ -21383,23 +21460,23 @@
       </c>
       <c r="AN87" s="31"/>
     </row>
-    <row r="88" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B88" s="71">
+    <row r="88" spans="2:40">
+      <c r="B88" s="63">
         <v>14</v>
       </c>
-      <c r="C88" s="55">
-        <v>90</v>
+      <c r="C88" s="58">
+        <v>45</v>
       </c>
       <c r="D88" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E88" s="55">
         <v>0.5</v>
       </c>
-      <c r="F88" s="72">
-        <v>1389</v>
-      </c>
-      <c r="H88" s="73">
+      <c r="F88" s="64">
+        <v>1384</v>
+      </c>
+      <c r="H88" s="65">
         <v>2</v>
       </c>
       <c r="I88" s="58">
@@ -21411,7 +21488,7 @@
       <c r="K88" s="58">
         <v>0</v>
       </c>
-      <c r="L88" s="74">
+      <c r="L88" s="66">
         <v>1390</v>
       </c>
       <c r="AF88" s="26"/>
@@ -21438,23 +21515,23 @@
       </c>
       <c r="AN88" s="28"/>
     </row>
-    <row r="89" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B89" s="71">
+    <row r="89" spans="2:40">
+      <c r="B89" s="63">
         <v>15</v>
       </c>
       <c r="C89" s="55">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D89" s="55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E89" s="55">
         <v>0.5</v>
       </c>
-      <c r="F89" s="72">
-        <v>1388</v>
-      </c>
-      <c r="H89" s="71">
+      <c r="F89" s="64">
+        <v>1389</v>
+      </c>
+      <c r="H89" s="63">
         <v>3</v>
       </c>
       <c r="I89" s="55">
@@ -21466,7 +21543,7 @@
       <c r="K89" s="55">
         <v>0</v>
       </c>
-      <c r="L89" s="74">
+      <c r="L89" s="66">
         <v>1393</v>
       </c>
       <c r="AF89" s="27" t="s">
@@ -21498,23 +21575,23 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="90" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B90" s="76">
+    <row r="90" spans="2:40" ht="17.25" thickBot="1">
+      <c r="B90" s="68">
         <v>16</v>
       </c>
-      <c r="C90" s="91">
+      <c r="C90" s="69">
         <v>180</v>
       </c>
-      <c r="D90" s="77">
-        <v>0.4</v>
-      </c>
-      <c r="E90" s="77">
+      <c r="D90" s="69">
         <v>0.5</v>
       </c>
-      <c r="F90" s="78">
-        <v>1398</v>
-      </c>
-      <c r="H90" s="71">
+      <c r="E90" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F90" s="70">
+        <v>1388</v>
+      </c>
+      <c r="H90" s="63">
         <v>4</v>
       </c>
       <c r="I90" s="55">
@@ -21526,52 +21603,59 @@
       <c r="K90" s="55">
         <v>0</v>
       </c>
-      <c r="L90" s="74">
+      <c r="L90" s="66">
         <v>1394</v>
       </c>
       <c r="AF90" s="27" t="s">
         <v>299</v>
       </c>
       <c r="AG90" s="22">
+        <f>AG84-AG89</f>
         <v>10</v>
       </c>
       <c r="AH90" s="22">
+        <f>AH84-AH89</f>
         <v>11</v>
       </c>
       <c r="AI90" s="22">
+        <f t="shared" ref="AI90" si="124">AI84-AI89</f>
         <v>6</v>
       </c>
       <c r="AJ90" s="22">
+        <f t="shared" ref="AJ90" si="125">AJ84-AJ89</f>
         <v>7</v>
       </c>
       <c r="AK90" s="22">
+        <f t="shared" ref="AK90" si="126">AK84-AK89</f>
         <v>10</v>
       </c>
       <c r="AL90" s="22">
+        <f t="shared" ref="AL90" si="127">AL84-AL89</f>
         <v>8</v>
       </c>
       <c r="AM90" s="22">
-        <v>11</v>
+        <f t="shared" ref="AM90" si="128">AM84-AM89</f>
+        <v>12</v>
       </c>
       <c r="AN90" s="34">
         <f>SUM(AG90:AM90)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="H91" s="83">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:40">
+      <c r="H91" s="75">
         <v>5</v>
       </c>
-      <c r="I91" s="84">
-        <v>0</v>
-      </c>
-      <c r="J91" s="84">
+      <c r="I91" s="76">
+        <v>0</v>
+      </c>
+      <c r="J91" s="76">
         <v>0.5</v>
       </c>
-      <c r="K91" s="86">
-        <v>0</v>
-      </c>
-      <c r="L91" s="85">
+      <c r="K91" s="78">
+        <v>0</v>
+      </c>
+      <c r="L91" s="77">
         <v>1397</v>
       </c>
       <c r="AF91" s="26" t="s">
@@ -21582,36 +21666,36 @@
         <v>219</v>
       </c>
       <c r="AH91" s="20">
-        <f t="shared" ref="AH91:AM91" si="78">AH89+AH90</f>
+        <f t="shared" ref="AH91:AM91" si="129">AH89+AH90</f>
         <v>202</v>
       </c>
       <c r="AI91" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="129"/>
         <v>203</v>
       </c>
       <c r="AJ91" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="129"/>
         <v>199</v>
       </c>
       <c r="AK91" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="129"/>
         <v>193</v>
       </c>
       <c r="AL91" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="129"/>
         <v>224</v>
       </c>
       <c r="AM91" s="20">
-        <f t="shared" si="78"/>
-        <v>217</v>
+        <f t="shared" si="129"/>
+        <v>218</v>
       </c>
       <c r="AN91" s="28">
         <f>SUM(AG91:AM91)</f>
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="92" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H92" s="71">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="92" spans="2:40" ht="17.25" thickBot="1">
+      <c r="H92" s="63">
         <v>6</v>
       </c>
       <c r="I92" s="55">
@@ -21623,7 +21707,7 @@
       <c r="K92" s="55">
         <v>0</v>
       </c>
-      <c r="L92" s="74">
+      <c r="L92" s="66">
         <v>1394</v>
       </c>
       <c r="AF92" s="29"/>
@@ -21632,33 +21716,37 @@
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="AH92" s="30">
-        <f t="shared" ref="AH92:AM92" si="79">AH90/AH91</f>
+        <f t="shared" ref="AH92:AM92" si="130">AH90/AH91</f>
         <v>5.4455445544554455E-2</v>
       </c>
       <c r="AI92" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="130"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="AJ92" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="130"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK92" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="130"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL92" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="130"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AM92" s="30">
-        <f t="shared" si="79"/>
-        <v>5.0691244239631339E-2</v>
+        <f t="shared" si="130"/>
+        <v>5.5045871559633031E-2</v>
       </c>
       <c r="AN92" s="36"/>
     </row>
-    <row r="93" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H93" s="71">
+    <row r="93" spans="2:40" ht="17.25" thickBot="1">
+      <c r="D93">
+        <f>1403/1458</f>
+        <v>0.9622770919067215</v>
+      </c>
+      <c r="H93" s="63">
         <v>7</v>
       </c>
       <c r="I93" s="55">
@@ -21670,14 +21758,14 @@
       <c r="K93" s="55">
         <v>0</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="66">
         <v>1367</v>
       </c>
       <c r="AE93">
         <v>14</v>
       </c>
       <c r="AF93">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="AG93">
         <v>0.4</v>
@@ -21686,8 +21774,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="H94" s="71">
+    <row r="94" spans="2:40">
+      <c r="H94" s="63">
         <v>8</v>
       </c>
       <c r="I94" s="55">
@@ -21699,7 +21787,7 @@
       <c r="K94" s="58">
         <v>0</v>
       </c>
-      <c r="L94" s="74">
+      <c r="L94" s="66">
         <v>1392</v>
       </c>
       <c r="AF94" s="24"/>
@@ -21726,20 +21814,20 @@
       </c>
       <c r="AN94" s="31"/>
     </row>
-    <row r="95" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H95" s="76">
+    <row r="95" spans="2:40" ht="17.25" thickBot="1">
+      <c r="H95" s="68">
         <v>9</v>
       </c>
-      <c r="I95" s="77">
-        <v>0</v>
-      </c>
-      <c r="J95" s="77">
+      <c r="I95" s="69">
+        <v>0</v>
+      </c>
+      <c r="J95" s="69">
         <v>0.9</v>
       </c>
-      <c r="K95" s="77">
-        <v>0</v>
-      </c>
-      <c r="L95" s="79">
+      <c r="K95" s="69">
+        <v>0</v>
+      </c>
+      <c r="L95" s="71">
         <v>1389</v>
       </c>
       <c r="AF95" s="26"/>
@@ -21766,7 +21854,7 @@
       </c>
       <c r="AN95" s="28"/>
     </row>
-    <row r="96" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="2:40" ht="17.25" thickBot="1">
       <c r="AF96" s="27" t="s">
         <v>23</v>
       </c>
@@ -21796,44 +21884,51 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="97" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="H97" s="80" t="s">
+    <row r="97" spans="8:40">
+      <c r="H97" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="I97" s="81" t="s">
+      <c r="I97" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="J97" s="81" t="s">
+      <c r="J97" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="K97" s="81" t="s">
+      <c r="K97" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="L97" s="82" t="s">
+      <c r="L97" s="74" t="s">
         <v>311</v>
       </c>
       <c r="AF97" s="27" t="s">
         <v>299</v>
       </c>
       <c r="AG97" s="22">
+        <f>AG91-AG96</f>
         <v>12</v>
       </c>
       <c r="AH97" s="22">
+        <f>AH91-AH96</f>
         <v>15</v>
       </c>
       <c r="AI97" s="22">
+        <f t="shared" ref="AI97" si="131">AI91-AI96</f>
         <v>8</v>
       </c>
       <c r="AJ97" s="22">
+        <f t="shared" ref="AJ97" si="132">AJ91-AJ96</f>
         <v>7</v>
       </c>
       <c r="AK97" s="22">
+        <f t="shared" ref="AK97" si="133">AK91-AK96</f>
         <v>10</v>
       </c>
       <c r="AL97" s="22">
+        <f t="shared" ref="AL97" si="134">AL91-AL96</f>
         <v>10</v>
       </c>
       <c r="AM97" s="22">
+        <f t="shared" ref="AM97" si="135">AM91-AM96</f>
         <v>12</v>
       </c>
       <c r="AN97" s="34">
@@ -21841,8 +21936,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="H98" s="71">
+    <row r="98" spans="8:40">
+      <c r="H98" s="63">
         <v>1</v>
       </c>
       <c r="I98" s="55">
@@ -21854,7 +21949,7 @@
       <c r="K98" s="55">
         <v>0</v>
       </c>
-      <c r="L98" s="74">
+      <c r="L98" s="66">
         <v>1389</v>
       </c>
       <c r="AF98" s="26" t="s">
@@ -21865,27 +21960,27 @@
         <v>219</v>
       </c>
       <c r="AH98" s="20">
-        <f t="shared" ref="AH98:AM98" si="80">AH96+AH97</f>
+        <f t="shared" ref="AH98:AM98" si="136">AH96+AH97</f>
         <v>202</v>
       </c>
       <c r="AI98" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="136"/>
         <v>203</v>
       </c>
       <c r="AJ98" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="136"/>
         <v>199</v>
       </c>
       <c r="AK98" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="136"/>
         <v>193</v>
       </c>
       <c r="AL98" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="136"/>
         <v>224</v>
       </c>
       <c r="AM98" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="136"/>
         <v>218</v>
       </c>
       <c r="AN98" s="28">
@@ -21893,8 +21988,8 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="99" spans="8:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H99" s="73">
+    <row r="99" spans="8:40" ht="17.25" thickBot="1">
+      <c r="H99" s="65">
         <v>2</v>
       </c>
       <c r="I99" s="58">
@@ -21906,7 +22001,7 @@
       <c r="K99" s="58">
         <v>0</v>
       </c>
-      <c r="L99" s="74">
+      <c r="L99" s="66">
         <v>1394</v>
       </c>
       <c r="AF99" s="29"/>
@@ -21915,33 +22010,33 @@
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="AH99" s="30">
-        <f t="shared" ref="AH99:AM99" si="81">AH97/AH98</f>
+        <f t="shared" ref="AH99:AM99" si="137">AH97/AH98</f>
         <v>7.4257425742574254E-2</v>
       </c>
       <c r="AI99" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="137"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="AJ99" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="137"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK99" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="137"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL99" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="137"/>
         <v>4.4642857142857144E-2</v>
       </c>
       <c r="AM99" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="137"/>
         <v>5.5045871559633031E-2</v>
       </c>
       <c r="AN99" s="36"/>
     </row>
-    <row r="100" spans="8:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H100" s="71">
+    <row r="100" spans="8:40" ht="17.25" thickBot="1">
+      <c r="H100" s="63">
         <v>3</v>
       </c>
       <c r="I100" s="55">
@@ -21954,14 +22049,14 @@
       <c r="K100" s="55">
         <v>0</v>
       </c>
-      <c r="L100" s="74">
-        <v>1394</v>
+      <c r="L100" s="66">
+        <v>1382</v>
       </c>
       <c r="AE100">
         <v>15</v>
       </c>
       <c r="AF100">
-        <v>0.3</v>
+        <v>90</v>
       </c>
       <c r="AG100">
         <v>0.4</v>
@@ -21970,8 +22065,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="H101" s="71">
+    <row r="101" spans="8:40">
+      <c r="H101" s="63">
         <v>4</v>
       </c>
       <c r="I101" s="55">
@@ -21984,7 +22079,7 @@
       <c r="K101" s="55">
         <v>0</v>
       </c>
-      <c r="L101" s="74">
+      <c r="L101" s="66">
         <v>1394</v>
       </c>
       <c r="AF101" s="24"/>
@@ -22011,8 +22106,8 @@
       </c>
       <c r="AN101" s="31"/>
     </row>
-    <row r="102" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="H102" s="75">
+    <row r="102" spans="8:40">
+      <c r="H102" s="67">
         <v>5</v>
       </c>
       <c r="I102" s="55">
@@ -22025,8 +22120,8 @@
       <c r="K102" s="58">
         <v>0</v>
       </c>
-      <c r="L102" s="74">
-        <v>1392</v>
+      <c r="L102" s="66">
+        <v>1390</v>
       </c>
       <c r="AF102" s="26"/>
       <c r="AG102" s="20">
@@ -22052,8 +22147,8 @@
       </c>
       <c r="AN102" s="28"/>
     </row>
-    <row r="103" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="H103" s="71">
+    <row r="103" spans="8:40">
+      <c r="H103" s="63">
         <v>6</v>
       </c>
       <c r="I103" s="55">
@@ -22066,7 +22161,7 @@
       <c r="K103" s="55">
         <v>0</v>
       </c>
-      <c r="L103" s="74">
+      <c r="L103" s="66">
         <v>1392</v>
       </c>
       <c r="AF103" s="27" t="s">
@@ -22098,8 +22193,8 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="104" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="H104" s="71">
+    <row r="104" spans="8:40">
+      <c r="H104" s="63">
         <v>7</v>
       </c>
       <c r="I104" s="55">
@@ -22112,31 +22207,38 @@
       <c r="K104" s="55">
         <v>0</v>
       </c>
-      <c r="L104" s="74">
+      <c r="L104" s="66">
         <v>1387</v>
       </c>
       <c r="AF104" s="27" t="s">
         <v>299</v>
       </c>
       <c r="AG104" s="22">
+        <f>AG98-AG103</f>
         <v>11</v>
       </c>
       <c r="AH104" s="22">
+        <f>AH98-AH103</f>
         <v>14</v>
       </c>
       <c r="AI104" s="22">
+        <f t="shared" ref="AI104" si="138">AI98-AI103</f>
         <v>9</v>
       </c>
       <c r="AJ104" s="22">
+        <f t="shared" ref="AJ104" si="139">AJ98-AJ103</f>
         <v>7</v>
       </c>
       <c r="AK104" s="22">
+        <f t="shared" ref="AK104" si="140">AK98-AK103</f>
         <v>10</v>
       </c>
       <c r="AL104" s="22">
+        <f t="shared" ref="AL104" si="141">AL98-AL103</f>
         <v>7</v>
       </c>
       <c r="AM104" s="22">
+        <f t="shared" ref="AM104" si="142">AM98-AM103</f>
         <v>11</v>
       </c>
       <c r="AN104" s="34">
@@ -22144,21 +22246,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="8:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="H105" s="87">
+    <row r="105" spans="8:40" ht="17.25" thickBot="1">
+      <c r="H105" s="79">
         <v>8</v>
       </c>
-      <c r="I105" s="88">
+      <c r="I105" s="80">
         <f>I104+I98</f>
         <v>180</v>
       </c>
-      <c r="J105" s="88">
-        <v>0</v>
-      </c>
-      <c r="K105" s="89">
-        <v>0</v>
-      </c>
-      <c r="L105" s="90">
+      <c r="J105" s="80">
+        <v>0</v>
+      </c>
+      <c r="K105" s="81">
+        <v>0</v>
+      </c>
+      <c r="L105" s="82">
         <f>1458-63</f>
         <v>1395</v>
       </c>
@@ -22170,27 +22272,27 @@
         <v>219</v>
       </c>
       <c r="AH105" s="20">
-        <f t="shared" ref="AH105:AM105" si="82">AH103+AH104</f>
+        <f t="shared" ref="AH105:AM105" si="143">AH103+AH104</f>
         <v>202</v>
       </c>
       <c r="AI105" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="143"/>
         <v>203</v>
       </c>
       <c r="AJ105" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="143"/>
         <v>199</v>
       </c>
       <c r="AK105" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="143"/>
         <v>193</v>
       </c>
       <c r="AL105" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="143"/>
         <v>224</v>
       </c>
       <c r="AM105" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="143"/>
         <v>218</v>
       </c>
       <c r="AN105" s="28">
@@ -22198,409 +22300,445 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="106" spans="8:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="8:40" ht="17.25" thickBot="1">
       <c r="AF106" s="29"/>
       <c r="AG106" s="30">
         <f>AG104/AG105</f>
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="AH106" s="30">
-        <f t="shared" ref="AH106:AM106" si="83">AH104/AH105</f>
+        <f t="shared" ref="AH106:AM106" si="144">AH104/AH105</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="AI106" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="144"/>
         <v>4.4334975369458129E-2</v>
       </c>
       <c r="AJ106" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="144"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="AK106" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="144"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="AL106" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="144"/>
         <v>3.125E-2</v>
       </c>
       <c r="AM106" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="144"/>
         <v>5.0458715596330278E-2</v>
       </c>
       <c r="AN106" s="36"/>
     </row>
-    <row r="107" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="AF107" s="24"/>
-      <c r="AG107" s="25" t="s">
+    <row r="107" spans="8:40" ht="17.25" thickBot="1">
+      <c r="AE107">
+        <v>16</v>
+      </c>
+      <c r="AF107" s="26">
+        <v>115</v>
+      </c>
+      <c r="AG107">
+        <v>0.4</v>
+      </c>
+      <c r="AH107">
+        <v>0.5</v>
+      </c>
+      <c r="AI107" s="39"/>
+      <c r="AJ107" s="39"/>
+      <c r="AK107" s="39"/>
+      <c r="AL107" s="39"/>
+      <c r="AM107" s="39"/>
+      <c r="AN107" s="28"/>
+    </row>
+    <row r="108" spans="8:40">
+      <c r="AF108" s="24">
+        <v>115</v>
+      </c>
+      <c r="AG108" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="AH107" s="56" t="s">
+      <c r="AH108" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="AI107" s="56" t="s">
+      <c r="AI108" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="AJ107" s="56" t="s">
+      <c r="AJ108" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="AK107" s="56" t="s">
+      <c r="AK108" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="AL107" s="25" t="s">
+      <c r="AL108" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="AM107" s="25" t="s">
+      <c r="AM108" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="AN107" s="31"/>
-    </row>
-    <row r="108" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH108" s="20">
+      <c r="AN108" s="31"/>
+    </row>
+    <row r="109" spans="8:40">
+      <c r="AF109" s="26"/>
+      <c r="AG109" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="20">
         <v>1</v>
       </c>
-      <c r="AI108" s="20">
+      <c r="AI109" s="20">
         <v>2</v>
       </c>
-      <c r="AJ108" s="20">
+      <c r="AJ109" s="20">
         <v>3</v>
       </c>
-      <c r="AK108" s="20">
+      <c r="AK109" s="20">
         <v>4</v>
       </c>
-      <c r="AL108" s="20">
+      <c r="AL109" s="20">
         <v>5</v>
       </c>
-      <c r="AM108" s="20">
+      <c r="AM109" s="20">
         <v>6</v>
       </c>
-      <c r="AN108" s="28"/>
-    </row>
-    <row r="109" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="AF109" s="27" t="s">
+      <c r="AN109" s="28"/>
+    </row>
+    <row r="110" spans="8:40">
+      <c r="AF110" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AG109" s="21">
+      <c r="AG110" s="21">
         <v>207</v>
       </c>
-      <c r="AH109" s="21">
+      <c r="AH110" s="21">
         <v>188</v>
       </c>
-      <c r="AI109" s="21">
+      <c r="AI110" s="21">
         <v>194</v>
       </c>
-      <c r="AJ109" s="21">
+      <c r="AJ110" s="21">
         <v>192</v>
       </c>
-      <c r="AK109" s="21">
+      <c r="AK110" s="21">
         <v>183</v>
       </c>
-      <c r="AL109" s="21">
+      <c r="AL110" s="21">
         <v>217</v>
       </c>
-      <c r="AM109" s="21">
+      <c r="AM110" s="21">
         <v>207</v>
-      </c>
-      <c r="AN109" s="34">
-        <f>SUM(AG109:AM109)</f>
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="110" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="AF110" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG110" s="22">
-        <v>12</v>
-      </c>
-      <c r="AH110" s="22">
-        <v>14</v>
-      </c>
-      <c r="AI110" s="22">
-        <v>9</v>
-      </c>
-      <c r="AJ110" s="22">
-        <v>7</v>
-      </c>
-      <c r="AK110" s="22">
-        <v>10</v>
-      </c>
-      <c r="AL110" s="22">
-        <v>7</v>
-      </c>
-      <c r="AM110" s="22">
-        <v>11</v>
       </c>
       <c r="AN110" s="34">
         <f>SUM(AG110:AM110)</f>
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="111" spans="8:40">
+      <c r="AF111" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG111" s="22">
+        <f>AG105-AG110</f>
+        <v>12</v>
+      </c>
+      <c r="AH111" s="22">
+        <f>AH105-AH110</f>
+        <v>14</v>
+      </c>
+      <c r="AI111" s="22">
+        <f t="shared" ref="AI111" si="145">AI105-AI110</f>
+        <v>9</v>
+      </c>
+      <c r="AJ111" s="22">
+        <f t="shared" ref="AJ111" si="146">AJ105-AJ110</f>
+        <v>7</v>
+      </c>
+      <c r="AK111" s="22">
+        <f t="shared" ref="AK111" si="147">AK105-AK110</f>
+        <v>10</v>
+      </c>
+      <c r="AL111" s="22">
+        <f t="shared" ref="AL111" si="148">AL105-AL110</f>
+        <v>7</v>
+      </c>
+      <c r="AM111" s="22">
+        <f t="shared" ref="AM111" si="149">AM105-AM110</f>
+        <v>11</v>
+      </c>
+      <c r="AN111" s="34">
+        <f>SUM(AG111:AM111)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="8:40" x14ac:dyDescent="0.6">
-      <c r="AF111" s="26" t="s">
+    <row r="112" spans="8:40">
+      <c r="AF112" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="AG111" s="20">
-        <f>AG109+AG110</f>
+      <c r="AG112" s="20">
+        <f>AG110+AG111</f>
         <v>219</v>
       </c>
-      <c r="AH111" s="20">
-        <f t="shared" ref="AH111:AM111" si="84">AH109+AH110</f>
+      <c r="AH112" s="20">
+        <f t="shared" ref="AH112:AM112" si="150">AH110+AH111</f>
         <v>202</v>
       </c>
-      <c r="AI111" s="20">
-        <f t="shared" si="84"/>
+      <c r="AI112" s="20">
+        <f t="shared" si="150"/>
         <v>203</v>
       </c>
-      <c r="AJ111" s="20">
-        <f t="shared" si="84"/>
+      <c r="AJ112" s="20">
+        <f t="shared" si="150"/>
         <v>199</v>
       </c>
-      <c r="AK111" s="20">
-        <f t="shared" si="84"/>
+      <c r="AK112" s="20">
+        <f t="shared" si="150"/>
         <v>193</v>
       </c>
-      <c r="AL111" s="20">
-        <f t="shared" si="84"/>
+      <c r="AL112" s="20">
+        <f t="shared" si="150"/>
         <v>224</v>
       </c>
-      <c r="AM111" s="20">
-        <f t="shared" si="84"/>
+      <c r="AM112" s="20">
+        <f t="shared" si="150"/>
         <v>218</v>
       </c>
-      <c r="AN111" s="28">
-        <f>SUM(AG111:AM111)</f>
+      <c r="AN112" s="28">
+        <f>SUM(AG112:AM112)</f>
         <v>1458</v>
       </c>
     </row>
-    <row r="112" spans="8:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="AF112" s="29"/>
-      <c r="AG112" s="30">
-        <f>AG110/AG111</f>
+    <row r="113" spans="31:40" ht="17.25" thickBot="1">
+      <c r="AF113" s="29"/>
+      <c r="AG113" s="30">
+        <f>AG111/AG112</f>
         <v>5.4794520547945202E-2</v>
       </c>
-      <c r="AH112" s="30">
-        <f t="shared" ref="AH112:AM112" si="85">AH110/AH111</f>
+      <c r="AH113" s="30">
+        <f t="shared" ref="AH113:AM113" si="151">AH111/AH112</f>
         <v>6.9306930693069313E-2</v>
       </c>
-      <c r="AI112" s="30">
-        <f t="shared" si="85"/>
+      <c r="AI113" s="30">
+        <f t="shared" si="151"/>
         <v>4.4334975369458129E-2</v>
       </c>
-      <c r="AJ112" s="30">
-        <f t="shared" si="85"/>
+      <c r="AJ113" s="30">
+        <f t="shared" si="151"/>
         <v>3.5175879396984924E-2</v>
       </c>
-      <c r="AK112" s="30">
-        <f t="shared" si="85"/>
+      <c r="AK113" s="30">
+        <f t="shared" si="151"/>
         <v>5.181347150259067E-2</v>
       </c>
-      <c r="AL112" s="30">
-        <f t="shared" si="85"/>
+      <c r="AL113" s="30">
+        <f t="shared" si="151"/>
         <v>3.125E-2</v>
       </c>
-      <c r="AM112" s="30">
-        <f t="shared" si="85"/>
+      <c r="AM113" s="30">
+        <f t="shared" si="151"/>
         <v>5.0458715596330278E-2</v>
       </c>
-      <c r="AN112" s="36"/>
-    </row>
-    <row r="113" spans="31:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="AE113">
+      <c r="AN113" s="36"/>
+    </row>
+    <row r="114" spans="31:40" ht="17.25" thickBot="1">
+      <c r="AE114">
         <v>17</v>
       </c>
-      <c r="AF113">
-        <v>0.9</v>
-      </c>
-      <c r="AG113">
+      <c r="AF114">
+        <v>180</v>
+      </c>
+      <c r="AG114">
         <v>0.4</v>
       </c>
-      <c r="AH113">
+      <c r="AH114">
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="31:40" x14ac:dyDescent="0.6">
-      <c r="AF114" s="24"/>
-      <c r="AG114" s="25" t="s">
+    <row r="115" spans="31:40">
+      <c r="AF115" s="24"/>
+      <c r="AG115" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="AH114" s="25" t="s">
+      <c r="AH115" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="AI114" s="25" t="s">
+      <c r="AI115" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="AJ114" s="25" t="s">
+      <c r="AJ115" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="AK114" s="25" t="s">
+      <c r="AK115" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="AL114" s="25" t="s">
+      <c r="AL115" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="AM114" s="25" t="s">
+      <c r="AM115" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="AN114" s="31"/>
-    </row>
-    <row r="115" spans="31:40" x14ac:dyDescent="0.6">
-      <c r="AF115" s="26"/>
-      <c r="AG115" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH115" s="20">
+      <c r="AN115" s="31"/>
+    </row>
+    <row r="116" spans="31:40">
+      <c r="AF116" s="26"/>
+      <c r="AG116" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="20">
         <v>1</v>
       </c>
-      <c r="AI115" s="20">
+      <c r="AI116" s="20">
         <v>2</v>
       </c>
-      <c r="AJ115" s="20">
+      <c r="AJ116" s="20">
         <v>3</v>
       </c>
-      <c r="AK115" s="20">
+      <c r="AK116" s="20">
         <v>4</v>
       </c>
-      <c r="AL115" s="20">
+      <c r="AL116" s="20">
         <v>5</v>
       </c>
-      <c r="AM115" s="20">
+      <c r="AM116" s="20">
         <v>6</v>
       </c>
-      <c r="AN115" s="28"/>
-    </row>
-    <row r="116" spans="31:40" x14ac:dyDescent="0.6">
-      <c r="AF116" s="27" t="s">
+      <c r="AN116" s="28"/>
+    </row>
+    <row r="117" spans="31:40">
+      <c r="AF117" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AG116" s="21">
+      <c r="AG117" s="21">
         <v>213</v>
       </c>
-      <c r="AH116" s="21">
+      <c r="AH117" s="21">
         <v>189</v>
       </c>
-      <c r="AI116" s="21">
+      <c r="AI117" s="21">
         <v>197</v>
       </c>
-      <c r="AJ116" s="21">
+      <c r="AJ117" s="21">
         <v>192</v>
       </c>
-      <c r="AK116" s="21">
+      <c r="AK117" s="21">
         <v>183</v>
       </c>
-      <c r="AL116" s="21">
+      <c r="AL117" s="21">
         <v>215</v>
       </c>
-      <c r="AM116" s="21">
+      <c r="AM117" s="21">
         <v>209</v>
-      </c>
-      <c r="AN116" s="34">
-        <f>SUM(AG116:AM116)</f>
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="117" spans="31:40" x14ac:dyDescent="0.6">
-      <c r="AF117" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG117" s="22">
-        <v>6</v>
-      </c>
-      <c r="AH117" s="22">
-        <v>13</v>
-      </c>
-      <c r="AI117" s="22">
-        <v>6</v>
-      </c>
-      <c r="AJ117" s="22">
-        <v>7</v>
-      </c>
-      <c r="AK117" s="22">
-        <v>10</v>
-      </c>
-      <c r="AL117" s="22">
-        <v>9</v>
-      </c>
-      <c r="AM117" s="22">
-        <v>9</v>
       </c>
       <c r="AN117" s="34">
         <f>SUM(AG117:AM117)</f>
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="118" spans="31:40">
+      <c r="AF118" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG118" s="22">
+        <f>AG112-AG117</f>
+        <v>6</v>
+      </c>
+      <c r="AH118" s="22">
+        <f>AH112-AH117</f>
+        <v>13</v>
+      </c>
+      <c r="AI118" s="22">
+        <f t="shared" ref="AI118" si="152">AI112-AI117</f>
+        <v>6</v>
+      </c>
+      <c r="AJ118" s="22">
+        <f t="shared" ref="AJ118" si="153">AJ112-AJ117</f>
+        <v>7</v>
+      </c>
+      <c r="AK118" s="22">
+        <f t="shared" ref="AK118" si="154">AK112-AK117</f>
+        <v>10</v>
+      </c>
+      <c r="AL118" s="22">
+        <f t="shared" ref="AL118" si="155">AL112-AL117</f>
+        <v>9</v>
+      </c>
+      <c r="AM118" s="22">
+        <f t="shared" ref="AM118" si="156">AM112-AM117</f>
+        <v>9</v>
+      </c>
+      <c r="AN118" s="34">
+        <f>SUM(AG118:AM118)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="31:40" x14ac:dyDescent="0.6">
-      <c r="AF118" s="26" t="s">
+    <row r="119" spans="31:40">
+      <c r="AF119" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="AG118" s="20">
-        <f>AG116+AG117</f>
+      <c r="AG119" s="20">
+        <f>AG117+AG118</f>
         <v>219</v>
       </c>
-      <c r="AH118" s="20">
-        <f t="shared" ref="AH118:AM118" si="86">AH116+AH117</f>
+      <c r="AH119" s="20">
+        <f t="shared" ref="AH119:AM119" si="157">AH117+AH118</f>
         <v>202</v>
       </c>
-      <c r="AI118" s="20">
-        <f t="shared" si="86"/>
+      <c r="AI119" s="20">
+        <f t="shared" si="157"/>
         <v>203</v>
       </c>
-      <c r="AJ118" s="20">
-        <f t="shared" si="86"/>
+      <c r="AJ119" s="20">
+        <f t="shared" si="157"/>
         <v>199</v>
       </c>
-      <c r="AK118" s="20">
-        <f t="shared" si="86"/>
+      <c r="AK119" s="20">
+        <f t="shared" si="157"/>
         <v>193</v>
       </c>
-      <c r="AL118" s="20">
-        <f t="shared" si="86"/>
+      <c r="AL119" s="20">
+        <f t="shared" si="157"/>
         <v>224</v>
       </c>
-      <c r="AM118" s="20">
-        <f t="shared" si="86"/>
+      <c r="AM119" s="20">
+        <f t="shared" si="157"/>
         <v>218</v>
       </c>
-      <c r="AN118" s="28">
-        <f>SUM(AG118:AM118)</f>
+      <c r="AN119" s="28">
+        <f>SUM(AG119:AM119)</f>
         <v>1458</v>
       </c>
     </row>
-    <row r="119" spans="31:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="AF119" s="29"/>
-      <c r="AG119" s="30">
-        <f>AG117/AG118</f>
+    <row r="120" spans="31:40" ht="17.25" thickBot="1">
+      <c r="AF120" s="29"/>
+      <c r="AG120" s="30">
+        <f>AG118/AG119</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="AH119" s="30">
-        <f t="shared" ref="AH119:AM119" si="87">AH117/AH118</f>
+      <c r="AH120" s="30">
+        <f t="shared" ref="AH120:AM120" si="158">AH118/AH119</f>
         <v>6.4356435643564358E-2</v>
       </c>
-      <c r="AI119" s="30">
-        <f t="shared" si="87"/>
+      <c r="AI120" s="30">
+        <f t="shared" si="158"/>
         <v>2.9556650246305417E-2</v>
       </c>
-      <c r="AJ119" s="30">
-        <f t="shared" si="87"/>
+      <c r="AJ120" s="30">
+        <f t="shared" si="158"/>
         <v>3.5175879396984924E-2</v>
       </c>
-      <c r="AK119" s="30">
-        <f t="shared" si="87"/>
+      <c r="AK120" s="30">
+        <f t="shared" si="158"/>
         <v>5.181347150259067E-2</v>
       </c>
-      <c r="AL119" s="30">
-        <f t="shared" si="87"/>
+      <c r="AL120" s="30">
+        <f t="shared" si="158"/>
         <v>4.0178571428571432E-2</v>
       </c>
-      <c r="AM119" s="30">
-        <f t="shared" si="87"/>
+      <c r="AM120" s="30">
+        <f t="shared" si="158"/>
         <v>4.1284403669724773E-2</v>
       </c>
-      <c r="AN119" s="36"/>
+      <c r="AN120" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
